--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_14_18.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_14_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-959954.9157976223</v>
+        <v>-960632.7364778937</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.451805854</v>
+        <v>632041.4518058543</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
         <v>122.0492982736047</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>122.0492982736047</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>122.0492982736047</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>46.21360886079829</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>23.69738124260191</v>
+        <v>32.88999934163208</v>
       </c>
       <c r="T11" t="n">
-        <v>28.0364332929323</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>55.76720738385733</v>
+        <v>28.39741371696054</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>111.5317073420753</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1491,16 +1491,16 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.136586121265648</v>
+        <v>6.136586121265644</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="S12" t="n">
-        <v>122.0492982736047</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>39.04952605836986</v>
+        <v>20.56530653072803</v>
       </c>
       <c r="U12" t="n">
         <v>42.84521610603982</v>
@@ -1515,7 +1515,7 @@
         <v>22.93043876461596</v>
       </c>
       <c r="Y12" t="n">
-        <v>122.0492982736047</v>
+        <v>29.00181045917097</v>
       </c>
     </row>
     <row r="13">
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>8.831062059420578</v>
+        <v>8.831062059420576</v>
       </c>
       <c r="S13" t="n">
         <v>40.9716860187127</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1616,64 +1616,64 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.3609804240282379</v>
+      </c>
+      <c r="I14" t="n">
+        <v>46.21360886079826</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>32.88999934163205</v>
+      </c>
+      <c r="T14" t="n">
+        <v>28.03643329293226</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>122.0492982736047</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="Y14" t="n">
         <v>122.0492982736047</v>
-      </c>
-      <c r="I14" t="n">
-        <v>46.2136088607983</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>32.88999934163209</v>
-      </c>
-      <c r="T14" t="n">
-        <v>28.03643329293229</v>
-      </c>
-      <c r="U14" t="n">
-        <v>55.76720738385734</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>66.64307131377583</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>51.93274503525225</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.136586121265644</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -1737,22 +1737,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>20.56530653072803</v>
+        <v>20.565306530728</v>
       </c>
       <c r="U15" t="n">
-        <v>42.84521610603982</v>
+        <v>42.84521610603979</v>
       </c>
       <c r="V15" t="n">
-        <v>46.2664452405476</v>
+        <v>46.26644524054757</v>
       </c>
       <c r="W15" t="n">
-        <v>122.0492982736047</v>
+        <v>72.32210790215692</v>
       </c>
       <c r="X15" t="n">
-        <v>119.8733523156802</v>
+        <v>82.52940107143917</v>
       </c>
       <c r="Y15" t="n">
-        <v>122.0492982736047</v>
+        <v>29.00181045917094</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>8.831062059420578</v>
+        <v>8.831062059420548</v>
       </c>
       <c r="S16" t="n">
-        <v>40.9716860187127</v>
+        <v>40.97168601871267</v>
       </c>
       <c r="T16" t="n">
-        <v>29.35851686199511</v>
+        <v>29.35851686199508</v>
       </c>
       <c r="U16" t="n">
-        <v>94.27381875013471</v>
+        <v>94.27381875013468</v>
       </c>
       <c r="V16" t="n">
-        <v>50.72653950959526</v>
+        <v>50.72653950959523</v>
       </c>
       <c r="W16" t="n">
-        <v>95.92823141448068</v>
+        <v>95.92823141448065</v>
       </c>
       <c r="X16" t="n">
-        <v>27.53697973338788</v>
+        <v>27.53697973338785</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.75879713931377</v>
+        <v>22.75879713931374</v>
       </c>
     </row>
     <row r="17">
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>17.01668021661577</v>
+        <v>17.01668021661487</v>
       </c>
       <c r="X17" t="n">
         <v>38.90293068555411</v>
@@ -1920,16 +1920,16 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>49.43169076287301</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
         <v>122.0492982736047</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1965,31 +1965,31 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.136586121265648</v>
+        <v>6.136586121265644</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
         <v>122.0492982736047</v>
-      </c>
-      <c r="V18" t="n">
-        <v>49.43169076287301</v>
-      </c>
-      <c r="W18" t="n">
-        <v>122.0492982736047</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>53.20745676868131</v>
+        <v>53.20745676868137</v>
       </c>
       <c r="C20" t="n">
-        <v>29.3257137720268</v>
+        <v>29.32571377202686</v>
       </c>
       <c r="D20" t="n">
-        <v>16.89237603307527</v>
+        <v>16.89237603307532</v>
       </c>
       <c r="E20" t="n">
-        <v>50.59912845248414</v>
+        <v>50.59912845248419</v>
       </c>
       <c r="F20" t="n">
-        <v>82.31946603086146</v>
+        <v>82.31946603086152</v>
       </c>
       <c r="G20" t="n">
-        <v>97.94765892927444</v>
+        <v>97.9476589292745</v>
       </c>
       <c r="H20" t="n">
-        <v>26.0317220423338</v>
+        <v>26.03172204233385</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>17.01668021661487</v>
+        <v>17.01668021661493</v>
       </c>
       <c r="X20" t="n">
-        <v>38.90293068555411</v>
+        <v>38.90293068555417</v>
       </c>
       <c r="Y20" t="n">
-        <v>61.40578380929787</v>
+        <v>61.40578380929793</v>
       </c>
     </row>
     <row r="21">
@@ -2157,67 +2157,67 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.3352829456698845</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>107.1657389737211</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
         <v>122.0492982736047</v>
       </c>
-      <c r="C21" t="n">
+      <c r="V21" t="n">
         <v>122.0492982736047</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>51.93274503525225</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>6.136586121265648</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>49.43169076287301</v>
       </c>
       <c r="W21" t="n">
         <v>122.0492982736047</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>53.20745676868131</v>
+        <v>53.20745676868137</v>
       </c>
       <c r="C23" t="n">
-        <v>29.3257137720268</v>
+        <v>29.32571377202686</v>
       </c>
       <c r="D23" t="n">
-        <v>16.89237603307527</v>
+        <v>16.89237603307532</v>
       </c>
       <c r="E23" t="n">
-        <v>50.59912845248414</v>
+        <v>50.59912845248419</v>
       </c>
       <c r="F23" t="n">
-        <v>82.31946603086146</v>
+        <v>82.31946603086152</v>
       </c>
       <c r="G23" t="n">
-        <v>97.94765892927444</v>
+        <v>97.9476589292745</v>
       </c>
       <c r="H23" t="n">
-        <v>26.0317220423338</v>
+        <v>26.03172204233385</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>17.01668021661487</v>
+        <v>17.01668021661493</v>
       </c>
       <c r="X23" t="n">
-        <v>38.90293068555411</v>
+        <v>38.90293068555417</v>
       </c>
       <c r="Y23" t="n">
-        <v>61.40578380929787</v>
+        <v>61.40578380929793</v>
       </c>
     </row>
     <row r="24">
@@ -2394,76 +2394,76 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>107.5010219193908</v>
+      </c>
+      <c r="W24" t="n">
         <v>122.0492982736045</v>
       </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>49.43169076287292</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>51.93274503525225</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>6.136586121265648</v>
-      </c>
-      <c r="R24" t="n">
+      <c r="X24" t="n">
         <v>122.0492982736045</v>
       </c>
-      <c r="S24" t="n">
+      <c r="Y24" t="n">
         <v>122.0492982736045</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2558,13 +2558,13 @@
         <v>137.2883401330385</v>
       </c>
       <c r="D26" t="n">
-        <v>124.855002394087</v>
+        <v>124.8550023940869</v>
       </c>
       <c r="E26" t="n">
         <v>158.5617548134958</v>
       </c>
       <c r="F26" t="n">
-        <v>190.2820923918732</v>
+        <v>190.2820923918731</v>
       </c>
       <c r="G26" t="n">
         <v>205.9102852902861</v>
@@ -2573,7 +2573,7 @@
         <v>133.9943484033455</v>
       </c>
       <c r="I26" t="n">
-        <v>27.67892728751264</v>
+        <v>27.67892728751261</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.35531776834642</v>
+        <v>14.35531776834638</v>
       </c>
       <c r="T26" t="n">
-        <v>9.50175171964662</v>
+        <v>9.501751719646601</v>
       </c>
       <c r="U26" t="n">
-        <v>37.23252581057167</v>
+        <v>37.23252581057164</v>
       </c>
       <c r="V26" t="n">
         <v>107.9626263610117</v>
       </c>
       <c r="W26" t="n">
-        <v>124.9793065776266</v>
+        <v>124.9793065776265</v>
       </c>
       <c r="X26" t="n">
         <v>146.8655570465658</v>
       </c>
       <c r="Y26" t="n">
-        <v>169.3684101703096</v>
+        <v>169.3684101703095</v>
       </c>
     </row>
     <row r="27">
@@ -2643,19 +2643,19 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>2.282604066097157</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>125.6800758778345</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>107.1657389737211</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>51.93274503525225</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.030624957442362</v>
+        <v>214.9477822055827</v>
       </c>
       <c r="U27" t="n">
-        <v>24.31053453275416</v>
+        <v>24.31053453275413</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>27.7317636672619</v>
       </c>
       <c r="W27" t="n">
-        <v>262.2947706485111</v>
+        <v>53.78742632887125</v>
       </c>
       <c r="X27" t="n">
-        <v>217.3129144394706</v>
+        <v>4.395757191330262</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.4671288858853</v>
+        <v>10.46712888588527</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.43700444542703</v>
+        <v>22.437004445427</v>
       </c>
       <c r="T28" t="n">
-        <v>10.82383528870945</v>
+        <v>10.82383528870942</v>
       </c>
       <c r="U28" t="n">
-        <v>75.73913717684904</v>
+        <v>75.73913717684901</v>
       </c>
       <c r="V28" t="n">
-        <v>32.19185793630959</v>
+        <v>32.19185793630956</v>
       </c>
       <c r="W28" t="n">
-        <v>77.39354984119501</v>
+        <v>77.39354984119498</v>
       </c>
       <c r="X28" t="n">
-        <v>9.002298160102214</v>
+        <v>9.002298160102185</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.224115566028104</v>
+        <v>4.224115566028075</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>133.9943484033455</v>
       </c>
       <c r="I29" t="n">
-        <v>27.67892728751263</v>
+        <v>27.67892728751264</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.35531776834641</v>
+        <v>14.35531776834642</v>
       </c>
       <c r="T29" t="n">
-        <v>9.501751719646629</v>
+        <v>9.50175171964662</v>
       </c>
       <c r="U29" t="n">
         <v>37.23252581057167</v>
@@ -2868,13 +2868,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2883,16 +2883,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>125.6800758778345</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>107.1657389737211</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>51.93274503525225</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2913,19 +2913,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.136586121265644</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S30" t="n">
-        <v>191.4841495043256</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>2.030624957442362</v>
       </c>
       <c r="U30" t="n">
-        <v>24.31053453275416</v>
+        <v>84.63484653421004</v>
       </c>
       <c r="V30" t="n">
         <v>27.73176366726193</v>
@@ -2934,7 +2934,7 @@
         <v>53.78742632887128</v>
       </c>
       <c r="X30" t="n">
-        <v>111.3304570286808</v>
+        <v>4.39575719133029</v>
       </c>
       <c r="Y30" t="n">
         <v>10.4671288858853</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.43700444542703</v>
+        <v>22.43700444542702</v>
       </c>
       <c r="T31" t="n">
         <v>10.82383528870945</v>
@@ -3032,7 +3032,7 @@
         <v>137.2883401330386</v>
       </c>
       <c r="D32" t="n">
-        <v>124.8550023940871</v>
+        <v>124.855002394087</v>
       </c>
       <c r="E32" t="n">
         <v>158.5617548134959</v>
@@ -3047,7 +3047,7 @@
         <v>133.9943484033456</v>
       </c>
       <c r="I32" t="n">
-        <v>27.67892728751272</v>
+        <v>27.67892728751269</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.35531776834651</v>
+        <v>14.35531776834645</v>
       </c>
       <c r="T32" t="n">
-        <v>9.501751719646705</v>
+        <v>9.501751719646677</v>
       </c>
       <c r="U32" t="n">
-        <v>37.23252581057176</v>
+        <v>37.23252581057173</v>
       </c>
       <c r="V32" t="n">
         <v>107.9626263610118</v>
       </c>
       <c r="W32" t="n">
-        <v>124.9793065776267</v>
+        <v>124.9793065776266</v>
       </c>
       <c r="X32" t="n">
         <v>146.8655570465659</v>
       </c>
       <c r="Y32" t="n">
-        <v>169.3684101703097</v>
+        <v>169.3684101703096</v>
       </c>
     </row>
     <row r="33">
@@ -3108,10 +3108,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>144.5183327796138</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
         <v>171.8275718397997</v>
@@ -3120,7 +3120,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>90.77349060805177</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.030624957442447</v>
+        <v>2.030624957442418</v>
       </c>
       <c r="U33" t="n">
-        <v>24.31053453275424</v>
+        <v>24.31053453275421</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>27.73176366726199</v>
       </c>
       <c r="W33" t="n">
-        <v>53.78742632887136</v>
+        <v>53.78742632887133</v>
       </c>
       <c r="X33" t="n">
-        <v>4.395757191330375</v>
+        <v>4.395757191330347</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.46712888588539</v>
+        <v>10.46712888588536</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.43700444542711</v>
+        <v>22.43700444542708</v>
       </c>
       <c r="T34" t="n">
-        <v>10.82383528870953</v>
+        <v>10.8238352887095</v>
       </c>
       <c r="U34" t="n">
-        <v>75.73913717684913</v>
+        <v>75.7391371768491</v>
       </c>
       <c r="V34" t="n">
-        <v>32.19185793630967</v>
+        <v>32.19185793630965</v>
       </c>
       <c r="W34" t="n">
-        <v>77.3935498411951</v>
+        <v>77.39354984119507</v>
       </c>
       <c r="X34" t="n">
-        <v>9.002298160102299</v>
+        <v>9.002298160102271</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.224115566028189</v>
+        <v>4.224115566028161</v>
       </c>
     </row>
     <row r="35">
@@ -3351,19 +3351,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>125.6800758778345</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>107.1657389737211</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,25 +3390,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9477822055827</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>84.15527681901027</v>
+        <v>18.61134966514638</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>50.67795721657308</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3579,22 +3579,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>61.11206715364701</v>
       </c>
       <c r="C39" t="n">
-        <v>29.29395203499779</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.7388631915159</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3624,10 +3624,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.136586121265648</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>134.3633376148752</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>18.61134966514638</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.553598523059065</v>
+        <v>9.553598523059058</v>
       </c>
       <c r="V41" t="n">
         <v>80.28369907349909</v>
@@ -3822,7 +3822,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>35.63502611994805</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>194.8073411965267</v>
       </c>
     </row>
     <row r="43">
@@ -4056,13 +4056,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4098,31 +4098,31 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.136586121265626</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>130.9617510585395</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.2276917808945</v>
       </c>
       <c r="V45" t="n">
         <v>0.05283637974932276</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>72.95057952406063</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>256.3281827984636</v>
+        <v>426.2907152574566</v>
       </c>
       <c r="C11" t="n">
-        <v>256.3281827984636</v>
+        <v>426.2907152574566</v>
       </c>
       <c r="D11" t="n">
-        <v>256.3281827984636</v>
+        <v>303.008595789169</v>
       </c>
       <c r="E11" t="n">
-        <v>133.046063330176</v>
+        <v>303.008595789169</v>
       </c>
       <c r="F11" t="n">
-        <v>133.046063330176</v>
+        <v>179.7264763208813</v>
       </c>
       <c r="G11" t="n">
-        <v>9.763943861888379</v>
+        <v>179.7264763208813</v>
       </c>
       <c r="H11" t="n">
-        <v>9.763943861888379</v>
+        <v>56.44435685259371</v>
       </c>
       <c r="I11" t="n">
-        <v>9.763943861888379</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J11" t="n">
-        <v>50.40521706887971</v>
+        <v>127.0904160344399</v>
       </c>
       <c r="K11" t="n">
-        <v>171.2340223597484</v>
+        <v>243.6655771636295</v>
       </c>
       <c r="L11" t="n">
-        <v>292.0628276506171</v>
+        <v>292.0628276506168</v>
       </c>
       <c r="M11" t="n">
-        <v>374.7900536537339</v>
+        <v>374.7900536537337</v>
       </c>
       <c r="N11" t="n">
-        <v>452.0134566452388</v>
+        <v>452.0134566452385</v>
       </c>
       <c r="O11" t="n">
-        <v>488.023967544419</v>
+        <v>488.0239675444187</v>
       </c>
       <c r="P11" t="n">
-        <v>488.023967544419</v>
+        <v>488.0239675444187</v>
       </c>
       <c r="Q11" t="n">
-        <v>488.023967544419</v>
+        <v>488.0239675444187</v>
       </c>
       <c r="R11" t="n">
-        <v>488.1971930944189</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="S11" t="n">
-        <v>464.260444364518</v>
+        <v>454.9749715372146</v>
       </c>
       <c r="T11" t="n">
-        <v>435.9408147756974</v>
+        <v>454.9749715372146</v>
       </c>
       <c r="U11" t="n">
-        <v>379.6103022667506</v>
+        <v>426.2907152574566</v>
       </c>
       <c r="V11" t="n">
-        <v>379.6103022667506</v>
+        <v>426.2907152574566</v>
       </c>
       <c r="W11" t="n">
-        <v>379.6103022667506</v>
+        <v>426.2907152574566</v>
       </c>
       <c r="X11" t="n">
-        <v>379.6103022667506</v>
+        <v>426.2907152574566</v>
       </c>
       <c r="Y11" t="n">
-        <v>379.6103022667506</v>
+        <v>426.2907152574566</v>
       </c>
     </row>
     <row r="12">
@@ -5094,31 +5094,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.763943861888379</v>
+        <v>122.4222341064089</v>
       </c>
       <c r="C12" t="n">
-        <v>9.763943861888379</v>
+        <v>122.4222341064089</v>
       </c>
       <c r="D12" t="n">
-        <v>9.763943861888379</v>
+        <v>122.4222341064089</v>
       </c>
       <c r="E12" t="n">
-        <v>9.763943861888379</v>
+        <v>122.4222341064089</v>
       </c>
       <c r="F12" t="n">
-        <v>9.763943861888379</v>
+        <v>122.4222341064089</v>
       </c>
       <c r="G12" t="n">
-        <v>9.763943861888379</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="H12" t="n">
-        <v>9.763943861888379</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="I12" t="n">
-        <v>9.763943861888379</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J12" t="n">
-        <v>9.763943861888379</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K12" t="n">
         <v>48.64509028167976</v>
@@ -5127,43 +5127,43 @@
         <v>167.2121322091851</v>
       </c>
       <c r="M12" t="n">
-        <v>288.0409375000538</v>
+        <v>288.0409375000537</v>
       </c>
       <c r="N12" t="n">
-        <v>288.0409375000538</v>
+        <v>403.4867099054315</v>
       </c>
       <c r="O12" t="n">
-        <v>403.4867099054317</v>
+        <v>403.4867099054315</v>
       </c>
       <c r="P12" t="n">
-        <v>488.1971930944189</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="Q12" t="n">
-        <v>481.9986212547566</v>
+        <v>481.9986212547564</v>
       </c>
       <c r="R12" t="n">
-        <v>481.9986212547566</v>
+        <v>358.7165017864688</v>
       </c>
       <c r="S12" t="n">
-        <v>358.7165017864691</v>
+        <v>358.7165017864688</v>
       </c>
       <c r="T12" t="n">
-        <v>319.2725360709439</v>
+        <v>337.9434648867435</v>
       </c>
       <c r="U12" t="n">
-        <v>275.9945400042371</v>
+        <v>294.6654688200366</v>
       </c>
       <c r="V12" t="n">
-        <v>229.2607569329769</v>
+        <v>247.9316857487764</v>
       </c>
       <c r="W12" t="n">
-        <v>156.2081226883739</v>
+        <v>174.8790515041734</v>
       </c>
       <c r="X12" t="n">
-        <v>133.046063330176</v>
+        <v>151.7169921459755</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.763943861888379</v>
+        <v>122.4222341064089</v>
       </c>
     </row>
     <row r="13">
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.763943861888379</v>
+        <v>26.36184332167607</v>
       </c>
       <c r="C13" t="n">
-        <v>9.763943861888379</v>
+        <v>54.00788507752954</v>
       </c>
       <c r="D13" t="n">
-        <v>58.47177103179088</v>
+        <v>54.00788507752954</v>
       </c>
       <c r="E13" t="n">
-        <v>58.47177103179088</v>
+        <v>54.00788507752954</v>
       </c>
       <c r="F13" t="n">
-        <v>94.11598604590159</v>
+        <v>108.9089225993735</v>
       </c>
       <c r="G13" t="n">
-        <v>94.11598604590159</v>
+        <v>108.9089225993735</v>
       </c>
       <c r="H13" t="n">
-        <v>122.4308499427879</v>
+        <v>108.9089225993735</v>
       </c>
       <c r="I13" t="n">
-        <v>122.4308499427879</v>
+        <v>108.9089225993735</v>
       </c>
       <c r="J13" t="n">
-        <v>196.1691865835814</v>
+        <v>182.647259240167</v>
       </c>
       <c r="K13" t="n">
-        <v>196.1691865835814</v>
+        <v>182.647259240167</v>
       </c>
       <c r="L13" t="n">
-        <v>196.1691865835814</v>
+        <v>303.4760645310356</v>
       </c>
       <c r="M13" t="n">
-        <v>196.1691865835814</v>
+        <v>316.9979918744501</v>
       </c>
       <c r="N13" t="n">
-        <v>196.1691865835814</v>
+        <v>316.9979918744501</v>
       </c>
       <c r="O13" t="n">
-        <v>196.1691865835814</v>
+        <v>316.9979918744501</v>
       </c>
       <c r="P13" t="n">
         <v>316.9979918744501</v>
@@ -5242,7 +5242,7 @@
         <v>32.7526278409932</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.763943861888379</v>
+        <v>9.763943861888375</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>303.0085957891686</v>
+        <v>56.80898354353131</v>
       </c>
       <c r="C14" t="n">
-        <v>303.0085957891686</v>
+        <v>56.80898354353131</v>
       </c>
       <c r="D14" t="n">
-        <v>303.0085957891686</v>
+        <v>56.80898354353131</v>
       </c>
       <c r="E14" t="n">
-        <v>303.0085957891686</v>
+        <v>56.80898354353131</v>
       </c>
       <c r="F14" t="n">
-        <v>179.726476320881</v>
+        <v>56.80898354353131</v>
       </c>
       <c r="G14" t="n">
-        <v>179.726476320881</v>
+        <v>56.80898354353131</v>
       </c>
       <c r="H14" t="n">
-        <v>56.44435685259344</v>
+        <v>56.4443568525937</v>
       </c>
       <c r="I14" t="n">
         <v>9.763943861888375</v>
       </c>
       <c r="J14" t="n">
-        <v>9.763943861888375</v>
+        <v>127.0904160344399</v>
       </c>
       <c r="K14" t="n">
-        <v>18.06556317397375</v>
+        <v>127.0904160344399</v>
       </c>
       <c r="L14" t="n">
-        <v>66.46281366096103</v>
+        <v>175.4876665214272</v>
       </c>
       <c r="M14" t="n">
-        <v>149.1900396640779</v>
+        <v>258.2148925245441</v>
       </c>
       <c r="N14" t="n">
-        <v>226.4134426555828</v>
+        <v>335.4382955160489</v>
       </c>
       <c r="O14" t="n">
-        <v>262.4239535547629</v>
+        <v>371.4488064152291</v>
       </c>
       <c r="P14" t="n">
         <v>383.2527588456315</v>
@@ -5303,25 +5303,25 @@
         <v>488.1971930944187</v>
       </c>
       <c r="S14" t="n">
-        <v>454.9749715372145</v>
+        <v>454.9749715372146</v>
       </c>
       <c r="T14" t="n">
-        <v>426.655341948394</v>
+        <v>426.6553419483942</v>
       </c>
       <c r="U14" t="n">
-        <v>370.3248294394472</v>
+        <v>426.6553419483942</v>
       </c>
       <c r="V14" t="n">
-        <v>370.3248294394472</v>
+        <v>426.6553419483942</v>
       </c>
       <c r="W14" t="n">
-        <v>370.3248294394472</v>
+        <v>426.6553419483942</v>
       </c>
       <c r="X14" t="n">
-        <v>303.0085957891686</v>
+        <v>303.3732224801064</v>
       </c>
       <c r="Y14" t="n">
-        <v>303.0085957891686</v>
+        <v>180.0911030118189</v>
       </c>
     </row>
     <row r="15">
@@ -5331,40 +5331,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9.763943861888375</v>
+        <v>185.5033815476025</v>
       </c>
       <c r="C15" t="n">
-        <v>9.763943861888375</v>
+        <v>62.2212620793149</v>
       </c>
       <c r="D15" t="n">
-        <v>9.763943861888375</v>
+        <v>62.2212620793149</v>
       </c>
       <c r="E15" t="n">
-        <v>9.763943861888375</v>
+        <v>62.2212620793149</v>
       </c>
       <c r="F15" t="n">
-        <v>9.763943861888375</v>
+        <v>62.2212620793149</v>
       </c>
       <c r="G15" t="n">
-        <v>9.763943861888375</v>
+        <v>62.2212620793149</v>
       </c>
       <c r="H15" t="n">
-        <v>9.763943861888375</v>
+        <v>62.2212620793149</v>
       </c>
       <c r="I15" t="n">
-        <v>9.763943861888375</v>
+        <v>62.2212620793149</v>
       </c>
       <c r="J15" t="n">
         <v>9.763943861888375</v>
       </c>
       <c r="K15" t="n">
-        <v>48.64509028167976</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="L15" t="n">
-        <v>167.2121322091851</v>
+        <v>41.00029403282564</v>
       </c>
       <c r="M15" t="n">
-        <v>282.6579046145629</v>
+        <v>161.8290993236943</v>
       </c>
       <c r="N15" t="n">
         <v>282.6579046145629</v>
@@ -5376,31 +5376,31 @@
         <v>488.1971930944187</v>
       </c>
       <c r="Q15" t="n">
-        <v>488.1971930944187</v>
+        <v>481.9986212547564</v>
       </c>
       <c r="R15" t="n">
-        <v>488.1971930944187</v>
+        <v>481.9986212547564</v>
       </c>
       <c r="S15" t="n">
-        <v>488.1971930944187</v>
+        <v>481.9986212547564</v>
       </c>
       <c r="T15" t="n">
-        <v>467.4241561946934</v>
+        <v>461.2255843550312</v>
       </c>
       <c r="U15" t="n">
-        <v>424.1461601279865</v>
+        <v>417.9475882883243</v>
       </c>
       <c r="V15" t="n">
-        <v>377.4123770567263</v>
+        <v>371.2138052170641</v>
       </c>
       <c r="W15" t="n">
-        <v>254.1302575884388</v>
+        <v>298.1611709724612</v>
       </c>
       <c r="X15" t="n">
-        <v>133.0460633301759</v>
+        <v>214.7981395871691</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.763943861888375</v>
+        <v>185.5033815476025</v>
       </c>
     </row>
     <row r="16">
@@ -5410,73 +5410,73 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.763943861888375</v>
+        <v>26.36184332167609</v>
       </c>
       <c r="C16" t="n">
-        <v>9.763943861888375</v>
+        <v>54.00788507752959</v>
       </c>
       <c r="D16" t="n">
-        <v>9.763943861888375</v>
+        <v>102.7157122474321</v>
       </c>
       <c r="E16" t="n">
-        <v>9.763943861888375</v>
+        <v>154.8949833654355</v>
       </c>
       <c r="F16" t="n">
-        <v>9.763943861888375</v>
+        <v>209.7960208872794</v>
       </c>
       <c r="G16" t="n">
-        <v>9.763943861888375</v>
+        <v>235.2256697934136</v>
       </c>
       <c r="H16" t="n">
-        <v>9.763943861888375</v>
+        <v>263.5405336903</v>
       </c>
       <c r="I16" t="n">
-        <v>9.763943861888375</v>
+        <v>263.5405336903</v>
       </c>
       <c r="J16" t="n">
-        <v>9.763943861888375</v>
+        <v>263.5405336903</v>
       </c>
       <c r="K16" t="n">
-        <v>9.763943861888375</v>
+        <v>263.5405336903</v>
       </c>
       <c r="L16" t="n">
-        <v>9.763943861888375</v>
+        <v>263.5405336903</v>
       </c>
       <c r="M16" t="n">
-        <v>9.763943861888375</v>
+        <v>263.5405336903</v>
       </c>
       <c r="N16" t="n">
-        <v>75.34038129271288</v>
+        <v>383.8908443538484</v>
       </c>
       <c r="O16" t="n">
-        <v>196.1691865835815</v>
+        <v>383.8908443538484</v>
       </c>
       <c r="P16" t="n">
-        <v>316.9979918744501</v>
+        <v>383.8908443538484</v>
       </c>
       <c r="Q16" t="n">
-        <v>383.8908443538487</v>
+        <v>383.8908443538484</v>
       </c>
       <c r="R16" t="n">
-        <v>374.9705796473633</v>
+        <v>374.970579647363</v>
       </c>
       <c r="S16" t="n">
-        <v>333.5850382143201</v>
+        <v>333.5850382143199</v>
       </c>
       <c r="T16" t="n">
-        <v>303.9299706769513</v>
+        <v>303.9299706769511</v>
       </c>
       <c r="U16" t="n">
-        <v>208.7038911313607</v>
+        <v>208.7038911313606</v>
       </c>
       <c r="V16" t="n">
-        <v>157.4649623337897</v>
+        <v>157.4649623337896</v>
       </c>
       <c r="W16" t="n">
-        <v>60.56775888481934</v>
+        <v>60.56775888481928</v>
       </c>
       <c r="X16" t="n">
-        <v>32.7526278409932</v>
+        <v>32.75262784099317</v>
       </c>
       <c r="Y16" t="n">
         <v>9.763943861888375</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>315.9417875589146</v>
+        <v>315.9417875589156</v>
       </c>
       <c r="C17" t="n">
-        <v>286.3198544558573</v>
+        <v>286.3198544558584</v>
       </c>
       <c r="D17" t="n">
-        <v>269.2568483618419</v>
+        <v>269.2568483618429</v>
       </c>
       <c r="E17" t="n">
-        <v>218.1466176017569</v>
+        <v>218.146617601758</v>
       </c>
       <c r="F17" t="n">
-        <v>134.9956418130079</v>
+        <v>134.9956418130089</v>
       </c>
       <c r="G17" t="n">
         <v>36.05861259151848</v>
@@ -5510,40 +5510,40 @@
         <v>9.763943861888375</v>
       </c>
       <c r="I17" t="n">
-        <v>89.24480594465246</v>
+        <v>89.24480594465247</v>
       </c>
       <c r="J17" t="n">
-        <v>89.24480594465246</v>
+        <v>89.24480594465247</v>
       </c>
       <c r="K17" t="n">
-        <v>89.24480594465246</v>
+        <v>89.24480594465247</v>
       </c>
       <c r="L17" t="n">
-        <v>137.6420564316397</v>
+        <v>137.6420564316398</v>
       </c>
       <c r="M17" t="n">
-        <v>220.3692824347566</v>
+        <v>220.3692824347567</v>
       </c>
       <c r="N17" t="n">
         <v>297.5926854262615</v>
       </c>
       <c r="O17" t="n">
-        <v>333.6031963254416</v>
+        <v>333.6031963254417</v>
       </c>
       <c r="P17" t="n">
-        <v>333.6031963254416</v>
+        <v>333.6031963254417</v>
       </c>
       <c r="Q17" t="n">
-        <v>454.4320016163102</v>
+        <v>333.6031963254417</v>
       </c>
       <c r="R17" t="n">
-        <v>488.1971930944187</v>
+        <v>333.6031963254417</v>
       </c>
       <c r="S17" t="n">
-        <v>488.1971930944187</v>
+        <v>333.6031963254417</v>
       </c>
       <c r="T17" t="n">
-        <v>488.1971930944187</v>
+        <v>418.1743935494831</v>
       </c>
       <c r="U17" t="n">
         <v>488.1971930944187</v>
@@ -5552,13 +5552,13 @@
         <v>488.1971930944187</v>
       </c>
       <c r="W17" t="n">
-        <v>471.0086272190492</v>
+        <v>471.0086272190503</v>
       </c>
       <c r="X17" t="n">
-        <v>431.7127376376815</v>
+        <v>431.7127376376825</v>
       </c>
       <c r="Y17" t="n">
-        <v>369.6866933858654</v>
+        <v>369.6866933858664</v>
       </c>
     </row>
     <row r="18">
@@ -5568,13 +5568,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>62.2212620793149</v>
+        <v>235.4343823181813</v>
       </c>
       <c r="C18" t="n">
-        <v>62.2212620793149</v>
+        <v>185.5033815476025</v>
       </c>
       <c r="D18" t="n">
-        <v>62.2212620793149</v>
+        <v>185.5033815476025</v>
       </c>
       <c r="E18" t="n">
         <v>62.2212620793149</v>
@@ -5595,19 +5595,19 @@
         <v>9.763943861888375</v>
       </c>
       <c r="K18" t="n">
-        <v>48.64509028167976</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="L18" t="n">
-        <v>167.2121322091851</v>
+        <v>128.3309857893937</v>
       </c>
       <c r="M18" t="n">
-        <v>246.5395825126815</v>
+        <v>249.1597910802623</v>
       </c>
       <c r="N18" t="n">
-        <v>367.3683878035501</v>
+        <v>369.9885963711309</v>
       </c>
       <c r="O18" t="n">
-        <v>488.1971930944187</v>
+        <v>403.4867099054315</v>
       </c>
       <c r="P18" t="n">
         <v>488.1971930944187</v>
@@ -5619,25 +5619,25 @@
         <v>481.9986212547564</v>
       </c>
       <c r="S18" t="n">
-        <v>481.9986212547564</v>
+        <v>358.7165017864688</v>
       </c>
       <c r="T18" t="n">
-        <v>481.9986212547564</v>
+        <v>358.7165017864688</v>
       </c>
       <c r="U18" t="n">
         <v>358.7165017864688</v>
       </c>
       <c r="V18" t="n">
-        <v>308.78550101589</v>
+        <v>358.7165017864688</v>
       </c>
       <c r="W18" t="n">
-        <v>185.5033815476025</v>
+        <v>358.7165017864688</v>
       </c>
       <c r="X18" t="n">
-        <v>185.5033815476025</v>
+        <v>358.7165017864688</v>
       </c>
       <c r="Y18" t="n">
-        <v>185.5033815476025</v>
+        <v>235.4343823181813</v>
       </c>
     </row>
     <row r="19">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>315.9417875589156</v>
+        <v>315.9417875589151</v>
       </c>
       <c r="C20" t="n">
-        <v>286.3198544558581</v>
+        <v>286.3198544558575</v>
       </c>
       <c r="D20" t="n">
-        <v>269.2568483618427</v>
+        <v>269.256848361842</v>
       </c>
       <c r="E20" t="n">
-        <v>218.1466176017576</v>
+        <v>218.146617601757</v>
       </c>
       <c r="F20" t="n">
-        <v>134.9956418130087</v>
+        <v>134.9956418130082</v>
       </c>
       <c r="G20" t="n">
-        <v>36.05861259151848</v>
+        <v>36.05861259151853</v>
       </c>
       <c r="H20" t="n">
         <v>9.763943861888375</v>
       </c>
       <c r="I20" t="n">
-        <v>89.24480594465246</v>
+        <v>89.24480594465241</v>
       </c>
       <c r="J20" t="n">
-        <v>89.24480594465246</v>
+        <v>89.24480594465241</v>
       </c>
       <c r="K20" t="n">
-        <v>89.24480594465246</v>
+        <v>89.24480594465241</v>
       </c>
       <c r="L20" t="n">
         <v>137.6420564316397</v>
@@ -5765,19 +5765,19 @@
         <v>297.5926854262615</v>
       </c>
       <c r="O20" t="n">
-        <v>333.6031963254416</v>
+        <v>333.6031963254417</v>
       </c>
       <c r="P20" t="n">
-        <v>390.7209271994673</v>
+        <v>333.6031963254417</v>
       </c>
       <c r="Q20" t="n">
-        <v>390.7209271994673</v>
+        <v>333.6031963254417</v>
       </c>
       <c r="R20" t="n">
-        <v>390.7209271994673</v>
+        <v>390.7209271994674</v>
       </c>
       <c r="S20" t="n">
-        <v>390.7209271994673</v>
+        <v>390.7209271994674</v>
       </c>
       <c r="T20" t="n">
         <v>488.1971930944187</v>
@@ -5786,16 +5786,16 @@
         <v>488.1971930944187</v>
       </c>
       <c r="V20" t="n">
-        <v>488.1971930944187</v>
+        <v>488.1971930944183</v>
       </c>
       <c r="W20" t="n">
-        <v>471.0086272190501</v>
+        <v>471.0086272190497</v>
       </c>
       <c r="X20" t="n">
-        <v>431.7127376376825</v>
+        <v>431.712737637682</v>
       </c>
       <c r="Y20" t="n">
-        <v>369.6866933858664</v>
+        <v>369.6866933858659</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>185.5033815476025</v>
+        <v>118.3508346895561</v>
       </c>
       <c r="C21" t="n">
-        <v>62.2212620793149</v>
+        <v>118.0121650474653</v>
       </c>
       <c r="D21" t="n">
-        <v>62.2212620793149</v>
+        <v>118.0121650474653</v>
       </c>
       <c r="E21" t="n">
-        <v>62.2212620793149</v>
+        <v>118.0121650474653</v>
       </c>
       <c r="F21" t="n">
-        <v>62.2212620793149</v>
+        <v>118.0121650474653</v>
       </c>
       <c r="G21" t="n">
-        <v>62.2212620793149</v>
+        <v>118.0121650474653</v>
       </c>
       <c r="H21" t="n">
-        <v>62.2212620793149</v>
+        <v>118.0121650474653</v>
       </c>
       <c r="I21" t="n">
-        <v>62.2212620793149</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J21" t="n">
         <v>9.763943861888375</v>
@@ -5838,43 +5838,43 @@
         <v>167.2121322091851</v>
       </c>
       <c r="M21" t="n">
-        <v>167.2121322091851</v>
+        <v>288.0409375000537</v>
       </c>
       <c r="N21" t="n">
-        <v>288.0409375000537</v>
+        <v>367.3683878035501</v>
       </c>
       <c r="O21" t="n">
-        <v>408.8697427909223</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="P21" t="n">
         <v>488.1971930944187</v>
       </c>
       <c r="Q21" t="n">
-        <v>481.9986212547564</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="R21" t="n">
-        <v>481.9986212547564</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="S21" t="n">
-        <v>481.9986212547564</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="T21" t="n">
-        <v>481.9986212547564</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="U21" t="n">
-        <v>481.9986212547564</v>
+        <v>364.9150736261312</v>
       </c>
       <c r="V21" t="n">
-        <v>432.0676204841776</v>
+        <v>241.6329541578436</v>
       </c>
       <c r="W21" t="n">
-        <v>308.78550101589</v>
+        <v>118.3508346895561</v>
       </c>
       <c r="X21" t="n">
-        <v>308.78550101589</v>
+        <v>118.3508346895561</v>
       </c>
       <c r="Y21" t="n">
-        <v>308.78550101589</v>
+        <v>118.3508346895561</v>
       </c>
     </row>
     <row r="22">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>315.9417875589151</v>
+        <v>315.9417875589141</v>
       </c>
       <c r="C23" t="n">
-        <v>286.3198544558578</v>
+        <v>286.3198544558569</v>
       </c>
       <c r="D23" t="n">
-        <v>269.2568483618423</v>
+        <v>269.2568483618414</v>
       </c>
       <c r="E23" t="n">
-        <v>218.1466176017574</v>
+        <v>218.146617601756</v>
       </c>
       <c r="F23" t="n">
-        <v>134.9956418130083</v>
+        <v>134.995641813007</v>
       </c>
       <c r="G23" t="n">
-        <v>36.05861259151846</v>
+        <v>36.05861259151852</v>
       </c>
       <c r="H23" t="n">
         <v>9.763943861888363</v>
@@ -5993,46 +5993,46 @@
         <v>9.763943861888363</v>
       </c>
       <c r="L23" t="n">
-        <v>58.16119434887565</v>
+        <v>58.16119434887566</v>
       </c>
       <c r="M23" t="n">
-        <v>140.8884203519925</v>
+        <v>140.8884203519926</v>
       </c>
       <c r="N23" t="n">
         <v>218.1118233434974</v>
       </c>
       <c r="O23" t="n">
-        <v>298.0496916927281</v>
+        <v>254.1223342426776</v>
       </c>
       <c r="P23" t="n">
-        <v>298.0496916927281</v>
+        <v>254.1223342426776</v>
       </c>
       <c r="Q23" t="n">
-        <v>298.0496916927281</v>
+        <v>254.1223342426776</v>
       </c>
       <c r="R23" t="n">
-        <v>298.0496916927281</v>
+        <v>254.1223342426776</v>
       </c>
       <c r="S23" t="n">
-        <v>390.7209271994667</v>
+        <v>320.6981276545312</v>
       </c>
       <c r="T23" t="n">
-        <v>488.1971930944181</v>
+        <v>418.1743935494825</v>
       </c>
       <c r="U23" t="n">
         <v>488.1971930944181</v>
       </c>
       <c r="V23" t="n">
-        <v>488.1971930944181</v>
+        <v>488.1971930944177</v>
       </c>
       <c r="W23" t="n">
-        <v>471.0086272190496</v>
+        <v>471.0086272190491</v>
       </c>
       <c r="X23" t="n">
-        <v>431.7127376376819</v>
+        <v>431.7127376376811</v>
       </c>
       <c r="Y23" t="n">
-        <v>369.6866933858659</v>
+        <v>369.686693385865</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>112.1522628498936</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="C24" t="n">
-        <v>112.1522628498936</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="D24" t="n">
-        <v>112.1522628498936</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="E24" t="n">
-        <v>112.1522628498936</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="F24" t="n">
-        <v>112.1522628498936</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="G24" t="n">
-        <v>62.22126207931488</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="H24" t="n">
-        <v>62.22126207931488</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="I24" t="n">
-        <v>62.22126207931488</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="J24" t="n">
         <v>9.763943861888363</v>
@@ -6072,7 +6072,7 @@
         <v>48.64509028167975</v>
       </c>
       <c r="L24" t="n">
-        <v>161.8290993236939</v>
+        <v>167.2121322091851</v>
       </c>
       <c r="M24" t="n">
         <v>282.6579046145624</v>
@@ -6087,31 +6087,31 @@
         <v>488.1971930944181</v>
       </c>
       <c r="Q24" t="n">
-        <v>481.9986212547558</v>
+        <v>488.1971930944181</v>
       </c>
       <c r="R24" t="n">
-        <v>358.7165017864684</v>
+        <v>488.1971930944181</v>
       </c>
       <c r="S24" t="n">
-        <v>235.434382318181</v>
+        <v>488.1971930944181</v>
       </c>
       <c r="T24" t="n">
-        <v>235.434382318181</v>
+        <v>488.1971930944181</v>
       </c>
       <c r="U24" t="n">
-        <v>235.434382318181</v>
+        <v>488.1971930944181</v>
       </c>
       <c r="V24" t="n">
-        <v>235.434382318181</v>
+        <v>379.6103022667506</v>
       </c>
       <c r="W24" t="n">
-        <v>235.434382318181</v>
+        <v>256.3281827984632</v>
       </c>
       <c r="X24" t="n">
-        <v>235.434382318181</v>
+        <v>133.0460633301758</v>
       </c>
       <c r="Y24" t="n">
-        <v>235.434382318181</v>
+        <v>9.763943861888363</v>
       </c>
     </row>
     <row r="25">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1024.530470300262</v>
+        <v>1024.530470300263</v>
       </c>
       <c r="C26" t="n">
-        <v>885.8553792567891</v>
+        <v>885.8553792567893</v>
       </c>
       <c r="D26" t="n">
-        <v>759.7392152223578</v>
+        <v>759.7392152223581</v>
       </c>
       <c r="E26" t="n">
-        <v>599.5758265218569</v>
+        <v>599.5758265218573</v>
       </c>
       <c r="F26" t="n">
-        <v>407.3716927926921</v>
+        <v>407.3716927926924</v>
       </c>
       <c r="G26" t="n">
-        <v>199.3815056307869</v>
+        <v>199.3815056307873</v>
       </c>
       <c r="H26" t="n">
-        <v>64.03367896074067</v>
+        <v>64.03367896074064</v>
       </c>
       <c r="I26" t="n">
         <v>36.07516654911174</v>
       </c>
       <c r="J26" t="n">
-        <v>171.7509734792161</v>
+        <v>171.7509734792157</v>
       </c>
       <c r="K26" t="n">
-        <v>377.2303396281795</v>
+        <v>377.2303396281792</v>
       </c>
       <c r="L26" t="n">
-        <v>636.4155757908258</v>
+        <v>636.4155757908254</v>
       </c>
       <c r="M26" t="n">
-        <v>929.9307874696015</v>
+        <v>929.9307874696012</v>
       </c>
       <c r="N26" t="n">
         <v>1217.942176136765</v>
@@ -6254,7 +6254,7 @@
         <v>1789.25800647746</v>
       </c>
       <c r="T26" t="n">
-        <v>1779.660277467716</v>
+        <v>1779.660277467715</v>
       </c>
       <c r="U26" t="n">
         <v>1742.051665537845</v>
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>36.07516654911174</v>
+        <v>326.0359382187128</v>
       </c>
       <c r="C27" t="n">
-        <v>36.07516654911174</v>
+        <v>326.0359382187128</v>
       </c>
       <c r="D27" t="n">
-        <v>36.07516654911174</v>
+        <v>326.0359382187128</v>
       </c>
       <c r="E27" t="n">
-        <v>36.07516654911174</v>
+        <v>326.0359382187128</v>
       </c>
       <c r="F27" t="n">
-        <v>36.07516654911174</v>
+        <v>323.7302775458874</v>
       </c>
       <c r="G27" t="n">
-        <v>36.07516654911174</v>
+        <v>323.7302775458874</v>
       </c>
       <c r="H27" t="n">
-        <v>36.07516654911174</v>
+        <v>196.7807059521151</v>
       </c>
       <c r="I27" t="n">
-        <v>36.07516654911174</v>
+        <v>88.53248476653826</v>
       </c>
       <c r="J27" t="n">
         <v>36.07516654911174</v>
@@ -6327,28 +6327,28 @@
         <v>800.7871810738247</v>
       </c>
       <c r="R27" t="n">
-        <v>800.7871810738247</v>
+        <v>665.0666380284962</v>
       </c>
       <c r="S27" t="n">
-        <v>800.7871810738247</v>
+        <v>665.0666380284962</v>
       </c>
       <c r="T27" t="n">
-        <v>798.7360447531759</v>
+        <v>447.9476661036651</v>
       </c>
       <c r="U27" t="n">
-        <v>774.1799492655454</v>
+        <v>423.3915706160347</v>
       </c>
       <c r="V27" t="n">
-        <v>531.1002311691794</v>
+        <v>395.3796881238509</v>
       </c>
       <c r="W27" t="n">
-        <v>266.1560183929056</v>
+        <v>341.0489544583244</v>
       </c>
       <c r="X27" t="n">
-        <v>46.64802400960195</v>
+        <v>336.608795679203</v>
       </c>
       <c r="Y27" t="n">
-        <v>36.07516654911174</v>
+        <v>326.0359382187128</v>
       </c>
     </row>
     <row r="28">
@@ -6388,43 +6388,43 @@
         <v>36.07516654911174</v>
       </c>
       <c r="L28" t="n">
-        <v>184.9863110441002</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="M28" t="n">
-        <v>184.9863110441002</v>
+        <v>222.6454168959492</v>
       </c>
       <c r="N28" t="n">
-        <v>184.9863110441002</v>
+        <v>222.6454168959492</v>
       </c>
       <c r="O28" t="n">
-        <v>184.9863110441002</v>
+        <v>270.2284982810514</v>
       </c>
       <c r="P28" t="n">
-        <v>184.9863110441002</v>
+        <v>270.2284982810514</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.2284982810516</v>
+        <v>270.2284982810514</v>
       </c>
       <c r="R28" t="n">
-        <v>270.2284982810516</v>
+        <v>270.2284982810514</v>
       </c>
       <c r="S28" t="n">
-        <v>247.5648574270849</v>
+        <v>247.5648574270847</v>
       </c>
       <c r="T28" t="n">
-        <v>236.6316904687925</v>
+        <v>236.6316904687924</v>
       </c>
       <c r="U28" t="n">
-        <v>160.1275115022783</v>
+        <v>160.1275115022782</v>
       </c>
       <c r="V28" t="n">
-        <v>127.6104832837838</v>
+        <v>127.6104832837837</v>
       </c>
       <c r="W28" t="n">
-        <v>49.43518041388984</v>
+        <v>49.43518041388978</v>
       </c>
       <c r="X28" t="n">
-        <v>40.34194994914013</v>
+        <v>40.3419499491401</v>
       </c>
       <c r="Y28" t="n">
         <v>36.07516654911174</v>
@@ -6449,16 +6449,16 @@
         <v>599.5758265218567</v>
       </c>
       <c r="F29" t="n">
-        <v>407.3716927926919</v>
+        <v>407.3716927926918</v>
       </c>
       <c r="G29" t="n">
-        <v>199.3815056307867</v>
+        <v>199.3815056307866</v>
       </c>
       <c r="H29" t="n">
-        <v>64.03367896074067</v>
+        <v>64.03367896074064</v>
       </c>
       <c r="I29" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="J29" t="n">
         <v>171.7509734792161</v>
@@ -6467,19 +6467,19 @@
         <v>377.2303396281795</v>
       </c>
       <c r="L29" t="n">
-        <v>636.4155757908263</v>
+        <v>636.4155757908256</v>
       </c>
       <c r="M29" t="n">
-        <v>929.9307874696021</v>
+        <v>929.9307874696015</v>
       </c>
       <c r="N29" t="n">
-        <v>1217.942176136766</v>
+        <v>1217.942176136765</v>
       </c>
       <c r="O29" t="n">
-        <v>1464.740672711605</v>
+        <v>1464.740672711604</v>
       </c>
       <c r="P29" t="n">
-        <v>1662.115223691695</v>
+        <v>1662.115223691694</v>
       </c>
       <c r="Q29" t="n">
         <v>1785.235767148034</v>
@@ -6491,19 +6491,19 @@
         <v>1789.25800647746</v>
       </c>
       <c r="T29" t="n">
-        <v>1779.660277467716</v>
+        <v>1779.660277467715</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.051665537846</v>
+        <v>1742.051665537844</v>
       </c>
       <c r="V29" t="n">
-        <v>1632.99850759743</v>
+        <v>1632.998507597428</v>
       </c>
       <c r="W29" t="n">
-        <v>1506.756783781645</v>
+        <v>1506.756783781644</v>
       </c>
       <c r="X29" t="n">
-        <v>1358.407736259861</v>
+        <v>1358.40773625986</v>
       </c>
       <c r="Y29" t="n">
         <v>1187.328534067629</v>
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>196.85528278808</v>
+        <v>473.9715534969135</v>
       </c>
       <c r="C30" t="n">
-        <v>196.85528278808</v>
+        <v>473.9715534969135</v>
       </c>
       <c r="D30" t="n">
-        <v>36.07516654911175</v>
+        <v>473.9715534969135</v>
       </c>
       <c r="E30" t="n">
-        <v>36.07516654911175</v>
+        <v>473.9715534969135</v>
       </c>
       <c r="F30" t="n">
-        <v>36.07516654911175</v>
+        <v>473.9715534969135</v>
       </c>
       <c r="G30" t="n">
-        <v>36.07516654911175</v>
+        <v>323.7302775458874</v>
       </c>
       <c r="H30" t="n">
-        <v>36.07516654911175</v>
+        <v>196.7807059521151</v>
       </c>
       <c r="I30" t="n">
-        <v>36.07516654911175</v>
+        <v>88.53248476653826</v>
       </c>
       <c r="J30" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="K30" t="n">
-        <v>74.95631296890313</v>
+        <v>74.95631296890312</v>
       </c>
       <c r="L30" t="n">
         <v>193.5233548964085</v>
@@ -6561,31 +6561,31 @@
         <v>800.7871810738247</v>
       </c>
       <c r="Q30" t="n">
-        <v>800.7871810738247</v>
+        <v>794.5886092341625</v>
       </c>
       <c r="R30" t="n">
-        <v>800.7871810738247</v>
+        <v>658.868066188834</v>
       </c>
       <c r="S30" t="n">
-        <v>607.3688482411726</v>
+        <v>658.868066188834</v>
       </c>
       <c r="T30" t="n">
-        <v>605.3177119205237</v>
+        <v>656.8169298681851</v>
       </c>
       <c r="U30" t="n">
-        <v>580.7616164328932</v>
+        <v>571.3271858942355</v>
       </c>
       <c r="V30" t="n">
-        <v>552.7497339407095</v>
+        <v>543.3153034020518</v>
       </c>
       <c r="W30" t="n">
-        <v>498.4190002751829</v>
+        <v>488.9845697365253</v>
       </c>
       <c r="X30" t="n">
-        <v>385.9639931755053</v>
+        <v>484.5444109574037</v>
       </c>
       <c r="Y30" t="n">
-        <v>375.3911357150151</v>
+        <v>473.9715534969135</v>
       </c>
     </row>
     <row r="31">
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="C31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="D31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="E31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="F31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="G31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="H31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="I31" t="n">
-        <v>36.07516654911175</v>
+        <v>83.80201537227634</v>
       </c>
       <c r="J31" t="n">
-        <v>36.07516654911175</v>
+        <v>175.8896867706227</v>
       </c>
       <c r="K31" t="n">
-        <v>36.07516654911175</v>
+        <v>270.2284982810516</v>
       </c>
       <c r="L31" t="n">
-        <v>215.7413043506737</v>
+        <v>270.2284982810516</v>
       </c>
       <c r="M31" t="n">
-        <v>215.7413043506737</v>
+        <v>270.2284982810516</v>
       </c>
       <c r="N31" t="n">
-        <v>215.7413043506737</v>
+        <v>270.2284982810516</v>
       </c>
       <c r="O31" t="n">
-        <v>215.7413043506737</v>
+        <v>270.2284982810516</v>
       </c>
       <c r="P31" t="n">
         <v>270.2284982810516</v>
@@ -6658,13 +6658,13 @@
         <v>127.6104832837838</v>
       </c>
       <c r="W31" t="n">
-        <v>49.43518041388985</v>
+        <v>49.43518041388984</v>
       </c>
       <c r="X31" t="n">
-        <v>40.34194994914014</v>
+        <v>40.34194994914013</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
     </row>
     <row r="32">
@@ -6680,43 +6680,43 @@
         <v>885.8553792567883</v>
       </c>
       <c r="D32" t="n">
-        <v>759.7392152223568</v>
+        <v>759.739215222357</v>
       </c>
       <c r="E32" t="n">
-        <v>599.5758265218559</v>
+        <v>599.575826521856</v>
       </c>
       <c r="F32" t="n">
-        <v>407.371692792691</v>
+        <v>407.3716927926911</v>
       </c>
       <c r="G32" t="n">
         <v>199.3815056307868</v>
       </c>
       <c r="H32" t="n">
-        <v>64.03367896074076</v>
+        <v>64.03367896074073</v>
       </c>
       <c r="I32" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="J32" t="n">
-        <v>171.750973479216</v>
+        <v>171.7509734792161</v>
       </c>
       <c r="K32" t="n">
-        <v>377.2303396281794</v>
+        <v>377.2303396281795</v>
       </c>
       <c r="L32" t="n">
-        <v>636.4155757908254</v>
+        <v>636.4155757908256</v>
       </c>
       <c r="M32" t="n">
-        <v>929.9307874696011</v>
+        <v>929.9307874696015</v>
       </c>
       <c r="N32" t="n">
-        <v>1217.942176136765</v>
+        <v>1217.942176136766</v>
       </c>
       <c r="O32" t="n">
-        <v>1464.740672711604</v>
+        <v>1464.740672711605</v>
       </c>
       <c r="P32" t="n">
-        <v>1662.115223691695</v>
+        <v>1662.115223691694</v>
       </c>
       <c r="Q32" t="n">
         <v>1785.235767148034</v>
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>461.7564812640408</v>
+        <v>676.8243168682233</v>
       </c>
       <c r="C33" t="n">
-        <v>461.7564812640408</v>
+        <v>530.8462029494215</v>
       </c>
       <c r="D33" t="n">
-        <v>461.7564812640408</v>
+        <v>370.0660867104532</v>
       </c>
       <c r="E33" t="n">
-        <v>288.1932773854553</v>
+        <v>196.5028828318677</v>
       </c>
       <c r="F33" t="n">
-        <v>127.7655611026994</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="G33" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="H33" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="I33" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="J33" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="K33" t="n">
-        <v>74.95631296890313</v>
+        <v>74.95631296890315</v>
       </c>
       <c r="L33" t="n">
         <v>193.5233548964085</v>
@@ -6789,40 +6789,40 @@
         <v>376.6401645971882</v>
       </c>
       <c r="N33" t="n">
-        <v>583.0234209365542</v>
+        <v>583.0234209365543</v>
       </c>
       <c r="O33" t="n">
-        <v>716.0766978848376</v>
+        <v>716.0766978848377</v>
       </c>
       <c r="P33" t="n">
-        <v>800.7871810738247</v>
+        <v>800.787181073825</v>
       </c>
       <c r="Q33" t="n">
-        <v>800.7871810738247</v>
+        <v>800.787181073825</v>
       </c>
       <c r="R33" t="n">
-        <v>800.7871810738247</v>
+        <v>800.787181073825</v>
       </c>
       <c r="S33" t="n">
-        <v>800.7871810738247</v>
+        <v>800.787181073825</v>
       </c>
       <c r="T33" t="n">
-        <v>798.7360447531757</v>
+        <v>798.7360447531761</v>
       </c>
       <c r="U33" t="n">
-        <v>774.1799492655452</v>
+        <v>774.1799492655456</v>
       </c>
       <c r="V33" t="n">
-        <v>531.1002311691793</v>
+        <v>746.1680667733617</v>
       </c>
       <c r="W33" t="n">
-        <v>476.7694975036527</v>
+        <v>691.8373331078351</v>
       </c>
       <c r="X33" t="n">
-        <v>472.3293387245311</v>
+        <v>687.3971743287135</v>
       </c>
       <c r="Y33" t="n">
-        <v>461.7564812640408</v>
+        <v>676.8243168682233</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>71.02240076645217</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="C34" t="n">
-        <v>117.0177772798584</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="D34" t="n">
-        <v>184.0749392073136</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="E34" t="n">
-        <v>254.6035450828697</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="F34" t="n">
-        <v>260.6219149623258</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="G34" t="n">
-        <v>260.6219149623258</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="H34" t="n">
-        <v>260.6219149623258</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="I34" t="n">
-        <v>260.6219149623258</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="J34" t="n">
-        <v>260.6219149623258</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="K34" t="n">
-        <v>260.6219149623258</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="L34" t="n">
-        <v>260.6219149623258</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="M34" t="n">
-        <v>260.6219149623258</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="N34" t="n">
-        <v>260.6219149623258</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="O34" t="n">
-        <v>260.6219149623258</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="P34" t="n">
-        <v>260.6219149623258</v>
+        <v>175.3797277253743</v>
       </c>
       <c r="Q34" t="n">
-        <v>260.6219149623258</v>
+        <v>260.6219149623256</v>
       </c>
       <c r="R34" t="n">
-        <v>270.2284982810522</v>
+        <v>270.228498281052</v>
       </c>
       <c r="S34" t="n">
-        <v>247.5648574270854</v>
+        <v>247.5648574270852</v>
       </c>
       <c r="T34" t="n">
-        <v>236.631690468793</v>
+        <v>236.6316904687928</v>
       </c>
       <c r="U34" t="n">
-        <v>160.1275115022787</v>
+        <v>160.1275115022786</v>
       </c>
       <c r="V34" t="n">
-        <v>127.6104832837841</v>
+        <v>127.610483283784</v>
       </c>
       <c r="W34" t="n">
-        <v>49.43518041389002</v>
+        <v>49.43518041388995</v>
       </c>
       <c r="X34" t="n">
-        <v>40.34194994914022</v>
+        <v>40.34194994914019</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
     </row>
     <row r="35">
@@ -6932,25 +6932,25 @@
         <v>26.31122268722337</v>
       </c>
       <c r="I35" t="n">
-        <v>33.73340056967351</v>
+        <v>33.73340056967352</v>
       </c>
       <c r="J35" t="n">
         <v>204.2335233968655</v>
       </c>
       <c r="K35" t="n">
-        <v>322.6562722757561</v>
+        <v>444.5372054429166</v>
       </c>
       <c r="L35" t="n">
-        <v>371.0535227627433</v>
+        <v>630.0792590310588</v>
       </c>
       <c r="M35" t="n">
-        <v>453.7807487658602</v>
+        <v>712.8064850341757</v>
       </c>
       <c r="N35" t="n">
-        <v>776.6164533301117</v>
+        <v>790.0298880256806</v>
       </c>
       <c r="O35" t="n">
-        <v>1058.239265802038</v>
+        <v>826.0403989248608</v>
       </c>
       <c r="P35" t="n">
         <v>1058.239265802038</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>26.31122268722337</v>
+        <v>585.3134952961842</v>
       </c>
       <c r="C36" t="n">
-        <v>26.31122268722337</v>
+        <v>585.3134952961842</v>
       </c>
       <c r="D36" t="n">
-        <v>26.31122268722337</v>
+        <v>585.3134952961842</v>
       </c>
       <c r="E36" t="n">
-        <v>26.31122268722337</v>
+        <v>411.7502914175986</v>
       </c>
       <c r="F36" t="n">
-        <v>26.31122268722337</v>
+        <v>411.7502914175986</v>
       </c>
       <c r="G36" t="n">
-        <v>26.31122268722337</v>
+        <v>261.5090154665725</v>
       </c>
       <c r="H36" t="n">
-        <v>26.31122268722337</v>
+        <v>134.5594438728002</v>
       </c>
       <c r="I36" t="n">
         <v>26.31122268722337</v>
@@ -7017,49 +7017,49 @@
         <v>26.31122268722337</v>
       </c>
       <c r="K36" t="n">
-        <v>65.19236910701476</v>
+        <v>65.19236910701477</v>
       </c>
       <c r="L36" t="n">
-        <v>183.7594110345201</v>
+        <v>183.7594110345202</v>
       </c>
       <c r="M36" t="n">
-        <v>366.8762207352998</v>
+        <v>366.8762207352999</v>
       </c>
       <c r="N36" t="n">
-        <v>573.2594770746658</v>
+        <v>573.2594770746659</v>
       </c>
       <c r="O36" t="n">
-        <v>706.3127540229492</v>
+        <v>706.3127540229493</v>
       </c>
       <c r="P36" t="n">
-        <v>791.0232372119364</v>
+        <v>791.0232372119365</v>
       </c>
       <c r="Q36" t="n">
-        <v>791.0232372119364</v>
+        <v>791.0232372119365</v>
       </c>
       <c r="R36" t="n">
-        <v>791.0232372119364</v>
+        <v>655.3026941666079</v>
       </c>
       <c r="S36" t="n">
-        <v>791.0232372119364</v>
+        <v>655.3026941666079</v>
       </c>
       <c r="T36" t="n">
-        <v>573.9042652871053</v>
+        <v>655.3026941666079</v>
       </c>
       <c r="U36" t="n">
-        <v>573.9042652871053</v>
+        <v>655.3026941666079</v>
       </c>
       <c r="V36" t="n">
-        <v>330.8245471907394</v>
+        <v>655.3026941666079</v>
       </c>
       <c r="W36" t="n">
-        <v>245.819217070527</v>
+        <v>636.5033510705005</v>
       </c>
       <c r="X36" t="n">
-        <v>26.31122268722337</v>
+        <v>585.3134952961842</v>
       </c>
       <c r="Y36" t="n">
-        <v>26.31122268722337</v>
+        <v>585.3134952961842</v>
       </c>
     </row>
     <row r="37">
@@ -7075,40 +7075,40 @@
         <v>26.31122268722337</v>
       </c>
       <c r="D37" t="n">
-        <v>26.31122268722337</v>
+        <v>109.9279233847933</v>
       </c>
       <c r="E37" t="n">
-        <v>26.31122268722337</v>
+        <v>109.9279233847933</v>
       </c>
       <c r="F37" t="n">
-        <v>26.31122268722337</v>
+        <v>109.9279233847933</v>
       </c>
       <c r="G37" t="n">
-        <v>26.31122268722337</v>
+        <v>109.9279233847933</v>
       </c>
       <c r="H37" t="n">
-        <v>26.31122268722337</v>
+        <v>109.9279233847933</v>
       </c>
       <c r="I37" t="n">
-        <v>26.31122268722337</v>
+        <v>109.9279233847933</v>
       </c>
       <c r="J37" t="n">
-        <v>26.31122268722337</v>
+        <v>109.9279233847933</v>
       </c>
       <c r="K37" t="n">
-        <v>26.31122268722337</v>
+        <v>109.9279233847933</v>
       </c>
       <c r="L37" t="n">
-        <v>26.31122268722337</v>
+        <v>109.9279233847933</v>
       </c>
       <c r="M37" t="n">
-        <v>26.31122268722337</v>
+        <v>109.9279233847933</v>
       </c>
       <c r="N37" t="n">
-        <v>26.31122268722337</v>
+        <v>109.9279233847933</v>
       </c>
       <c r="O37" t="n">
-        <v>26.31122268722337</v>
+        <v>109.9279233847933</v>
       </c>
       <c r="P37" t="n">
         <v>109.9279233847933</v>
@@ -7151,16 +7151,16 @@
         <v>773.6196706102302</v>
       </c>
       <c r="C38" t="n">
-        <v>670.4759701361761</v>
+        <v>670.475970136176</v>
       </c>
       <c r="D38" t="n">
         <v>579.8911966711638</v>
       </c>
       <c r="E38" t="n">
-        <v>455.2591985400821</v>
+        <v>455.259198540082</v>
       </c>
       <c r="F38" t="n">
-        <v>298.5864553803362</v>
+        <v>298.5864553803363</v>
       </c>
       <c r="G38" t="n">
         <v>126.1276587878502</v>
@@ -7169,28 +7169,28 @@
         <v>26.31122268722337</v>
       </c>
       <c r="I38" t="n">
-        <v>33.73340056967351</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="J38" t="n">
-        <v>204.2335233968655</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="K38" t="n">
-        <v>204.2335233968655</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="L38" t="n">
-        <v>498.2430754565993</v>
+        <v>74.70847317421068</v>
       </c>
       <c r="M38" t="n">
-        <v>580.9703014597162</v>
+        <v>400.3098539285998</v>
       </c>
       <c r="N38" t="n">
-        <v>903.8060060239677</v>
+        <v>723.1455584928513</v>
       </c>
       <c r="O38" t="n">
-        <v>939.8165169231479</v>
+        <v>826.0403989248608</v>
       </c>
       <c r="P38" t="n">
-        <v>1172.015383800325</v>
+        <v>1058.239265802038</v>
       </c>
       <c r="Q38" t="n">
         <v>1216.184125155466</v>
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>379.7055530572369</v>
+        <v>710.4945333545694</v>
       </c>
       <c r="C39" t="n">
-        <v>350.1157025168351</v>
+        <v>521.0822590875331</v>
       </c>
       <c r="D39" t="n">
-        <v>350.1157025168351</v>
+        <v>360.3021428485648</v>
       </c>
       <c r="E39" t="n">
-        <v>176.5524986382495</v>
+        <v>186.7389389699793</v>
       </c>
       <c r="F39" t="n">
-        <v>176.5524986382495</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="G39" t="n">
         <v>26.31122268722337</v>
@@ -7254,49 +7254,49 @@
         <v>26.31122268722337</v>
       </c>
       <c r="K39" t="n">
-        <v>65.19236910701476</v>
+        <v>65.19236910701477</v>
       </c>
       <c r="L39" t="n">
-        <v>183.7594110345201</v>
+        <v>183.7594110345202</v>
       </c>
       <c r="M39" t="n">
-        <v>366.8762207352998</v>
+        <v>366.8762207352999</v>
       </c>
       <c r="N39" t="n">
-        <v>573.2594770746658</v>
+        <v>573.2594770746659</v>
       </c>
       <c r="O39" t="n">
-        <v>706.3127540229492</v>
+        <v>706.3127540229493</v>
       </c>
       <c r="P39" t="n">
-        <v>791.0232372119364</v>
+        <v>791.0232372119365</v>
       </c>
       <c r="Q39" t="n">
-        <v>784.8246653722741</v>
+        <v>791.0232372119365</v>
       </c>
       <c r="R39" t="n">
-        <v>649.1041223269456</v>
+        <v>791.0232372119365</v>
       </c>
       <c r="S39" t="n">
-        <v>649.1041223269456</v>
+        <v>791.0232372119365</v>
       </c>
       <c r="T39" t="n">
-        <v>649.1041223269456</v>
+        <v>791.0232372119365</v>
       </c>
       <c r="U39" t="n">
-        <v>649.1041223269456</v>
+        <v>791.0232372119365</v>
       </c>
       <c r="V39" t="n">
-        <v>649.1041223269456</v>
+        <v>791.0232372119365</v>
       </c>
       <c r="W39" t="n">
-        <v>379.7055530572369</v>
+        <v>772.223894115829</v>
       </c>
       <c r="X39" t="n">
-        <v>379.7055530572369</v>
+        <v>772.223894115829</v>
       </c>
       <c r="Y39" t="n">
-        <v>379.7055530572369</v>
+        <v>772.223894115829</v>
       </c>
     </row>
     <row r="40">
@@ -7309,52 +7309,52 @@
         <v>26.31122268722337</v>
       </c>
       <c r="C40" t="n">
-        <v>97.31624188867842</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="D40" t="n">
-        <v>97.31624188867842</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="E40" t="n">
-        <v>97.31624188867842</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="F40" t="n">
-        <v>97.31624188867842</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="G40" t="n">
-        <v>97.31624188867842</v>
+        <v>104.914522247998</v>
       </c>
       <c r="H40" t="n">
-        <v>97.31624188867842</v>
+        <v>109.9279233847933</v>
       </c>
       <c r="I40" t="n">
-        <v>97.31624188867842</v>
+        <v>109.9279233847933</v>
       </c>
       <c r="J40" t="n">
-        <v>97.31624188867842</v>
+        <v>109.9279233847933</v>
       </c>
       <c r="K40" t="n">
-        <v>97.31624188867842</v>
+        <v>109.9279233847933</v>
       </c>
       <c r="L40" t="n">
-        <v>97.31624188867842</v>
+        <v>109.9279233847933</v>
       </c>
       <c r="M40" t="n">
-        <v>97.31624188867842</v>
+        <v>109.9279233847933</v>
       </c>
       <c r="N40" t="n">
-        <v>97.31624188867842</v>
+        <v>109.9279233847933</v>
       </c>
       <c r="O40" t="n">
-        <v>97.31624188867842</v>
+        <v>109.9279233847933</v>
       </c>
       <c r="P40" t="n">
-        <v>97.31624188867842</v>
+        <v>109.9279233847933</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.31624188867842</v>
+        <v>109.9279233847933</v>
       </c>
       <c r="R40" t="n">
-        <v>97.31624188867842</v>
+        <v>109.9279233847933</v>
       </c>
       <c r="S40" t="n">
         <v>109.9279233847933</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>820.9115219629606</v>
+        <v>820.9115219629601</v>
       </c>
       <c r="C41" t="n">
-        <v>710.1949433311161</v>
+        <v>710.1949433311156</v>
       </c>
       <c r="D41" t="n">
-        <v>612.0372917083139</v>
+        <v>612.0372917083134</v>
       </c>
       <c r="E41" t="n">
-        <v>479.832415419442</v>
+        <v>479.8324154194415</v>
       </c>
       <c r="F41" t="n">
-        <v>315.586794101906</v>
+        <v>315.5867941019055</v>
       </c>
       <c r="G41" t="n">
         <v>135.5551193516299</v>
@@ -7412,19 +7412,19 @@
         <v>191.2437500379546</v>
       </c>
       <c r="K41" t="n">
-        <v>191.2437500379546</v>
+        <v>424.1252542015555</v>
       </c>
       <c r="L41" t="n">
-        <v>283.5390213621886</v>
+        <v>472.5225046885429</v>
       </c>
       <c r="M41" t="n">
-        <v>366.2662473653055</v>
+        <v>793.4398543819561</v>
       </c>
       <c r="N41" t="n">
-        <v>681.6797740471068</v>
+        <v>870.6632573734611</v>
       </c>
       <c r="O41" t="n">
-        <v>955.8804086365833</v>
+        <v>955.8804086365832</v>
       </c>
       <c r="P41" t="n">
         <v>1180.657097631311</v>
@@ -7445,7 +7445,7 @@
         <v>1398.640155142399</v>
       </c>
       <c r="V41" t="n">
-        <v>1317.545509613612</v>
+        <v>1317.545509613611</v>
       </c>
       <c r="W41" t="n">
         <v>1219.262298209456</v>
@@ -7454,7 +7454,7 @@
         <v>1098.871763099301</v>
       </c>
       <c r="Y41" t="n">
-        <v>955.7510733186984</v>
+        <v>955.751073318698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>587.9163753565383</v>
+        <v>391.1412832388346</v>
       </c>
       <c r="C42" t="n">
-        <v>398.504101089502</v>
+        <v>201.7290089717984</v>
       </c>
       <c r="D42" t="n">
-        <v>237.7239848505338</v>
+        <v>201.7290089717984</v>
       </c>
       <c r="E42" t="n">
-        <v>64.16078097194821</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="F42" t="n">
-        <v>64.16078097194821</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="G42" t="n">
-        <v>64.16078097194821</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="H42" t="n">
-        <v>64.16078097194821</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="I42" t="n">
-        <v>64.16078097194821</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="J42" t="n">
         <v>28.1658050932128</v>
       </c>
       <c r="K42" t="n">
-        <v>67.04695151300419</v>
+        <v>67.0469515130042</v>
       </c>
       <c r="L42" t="n">
-        <v>185.6139934405095</v>
+        <v>185.6139934405096</v>
       </c>
       <c r="M42" t="n">
-        <v>368.7308031412892</v>
+        <v>368.7308031412893</v>
       </c>
       <c r="N42" t="n">
-        <v>575.1140594806553</v>
+        <v>575.1140594806554</v>
       </c>
       <c r="O42" t="n">
-        <v>708.1673364289387</v>
+        <v>708.1673364289388</v>
       </c>
       <c r="P42" t="n">
-        <v>792.8778196179259</v>
+        <v>792.877819617926</v>
       </c>
       <c r="Q42" t="n">
-        <v>792.8778196179259</v>
+        <v>792.877819617926</v>
       </c>
       <c r="R42" t="n">
-        <v>792.8778196179259</v>
+        <v>792.877819617926</v>
       </c>
       <c r="S42" t="n">
-        <v>792.8778196179259</v>
+        <v>792.877819617926</v>
       </c>
       <c r="T42" t="n">
-        <v>792.8778196179259</v>
+        <v>792.877819617926</v>
       </c>
       <c r="U42" t="n">
-        <v>792.8778196179259</v>
+        <v>792.877819617926</v>
       </c>
       <c r="V42" t="n">
-        <v>792.824449537371</v>
+        <v>792.8244495373712</v>
       </c>
       <c r="W42" t="n">
-        <v>766.4522282834733</v>
+        <v>766.4522282834735</v>
       </c>
       <c r="X42" t="n">
-        <v>766.4522282834733</v>
+        <v>766.4522282834735</v>
       </c>
       <c r="Y42" t="n">
-        <v>766.4522282834733</v>
+        <v>569.6771361657698</v>
       </c>
     </row>
     <row r="43">
@@ -7561,34 +7561,34 @@
         <v>28.1658050932128</v>
       </c>
       <c r="H43" t="n">
-        <v>28.1658050932128</v>
+        <v>102.2321417622894</v>
       </c>
       <c r="I43" t="n">
-        <v>28.1658050932128</v>
+        <v>102.2321417622894</v>
       </c>
       <c r="J43" t="n">
-        <v>28.1658050932128</v>
+        <v>102.2321417622894</v>
       </c>
       <c r="K43" t="n">
-        <v>28.1658050932128</v>
+        <v>102.2321417622894</v>
       </c>
       <c r="L43" t="n">
-        <v>28.1658050932128</v>
+        <v>102.2321417622894</v>
       </c>
       <c r="M43" t="n">
-        <v>28.1658050932128</v>
+        <v>102.2321417622894</v>
       </c>
       <c r="N43" t="n">
-        <v>28.1658050932128</v>
+        <v>102.2321417622894</v>
       </c>
       <c r="O43" t="n">
-        <v>131.4867779132288</v>
+        <v>102.2321417622894</v>
       </c>
       <c r="P43" t="n">
-        <v>131.4867779132288</v>
+        <v>102.2321417622894</v>
       </c>
       <c r="Q43" t="n">
-        <v>131.4867779132288</v>
+        <v>102.2321417622894</v>
       </c>
       <c r="R43" t="n">
         <v>131.4867779132288</v>
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>820.9115219629617</v>
+        <v>820.9115219629613</v>
       </c>
       <c r="C44" t="n">
-        <v>710.1949433311174</v>
+        <v>710.194943331117</v>
       </c>
       <c r="D44" t="n">
-        <v>612.0372917083148</v>
+        <v>612.0372917083143</v>
       </c>
       <c r="E44" t="n">
-        <v>479.8324154194424</v>
+        <v>479.8324154194419</v>
       </c>
       <c r="F44" t="n">
-        <v>315.5867941019064</v>
+        <v>315.586794101906</v>
       </c>
       <c r="G44" t="n">
         <v>135.5551193516299</v>
       </c>
       <c r="H44" t="n">
-        <v>28.16580509321281</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="I44" t="n">
-        <v>28.16580509321281</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="J44" t="n">
-        <v>191.2437500379546</v>
+        <v>191.2437500379547</v>
       </c>
       <c r="K44" t="n">
-        <v>424.1252542015555</v>
+        <v>424.1252542015556</v>
       </c>
       <c r="L44" t="n">
-        <v>472.5225046885428</v>
+        <v>658.8383918278931</v>
       </c>
       <c r="M44" t="n">
-        <v>604.4563710556023</v>
+        <v>741.5656178310101</v>
       </c>
       <c r="N44" t="n">
-        <v>919.8698977374036</v>
+        <v>1056.979144512811</v>
       </c>
       <c r="O44" t="n">
-        <v>955.8804086365838</v>
+        <v>1331.179779102288</v>
       </c>
       <c r="P44" t="n">
-        <v>1180.657097631311</v>
+        <v>1331.179779102288</v>
       </c>
       <c r="Q44" t="n">
         <v>1331.179779102288</v>
       </c>
       <c r="R44" t="n">
-        <v>1377.104477424479</v>
+        <v>1377.104477424478</v>
       </c>
       <c r="S44" t="n">
         <v>1390.294850848453</v>
       </c>
       <c r="T44" t="n">
-        <v>1408.290254660641</v>
+        <v>1408.29025466064</v>
       </c>
       <c r="U44" t="n">
-        <v>1398.6401551424</v>
+        <v>1398.640155142399</v>
       </c>
       <c r="V44" t="n">
-        <v>1317.545509613613</v>
+        <v>1317.545509613612</v>
       </c>
       <c r="W44" t="n">
         <v>1219.262298209457</v>
       </c>
       <c r="X44" t="n">
-        <v>1098.871763099303</v>
+        <v>1098.871763099302</v>
       </c>
       <c r="Y44" t="n">
-        <v>955.7510733186996</v>
+        <v>955.7510733186991</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>391.1412832388346</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="C45" t="n">
-        <v>201.7290089717984</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="D45" t="n">
-        <v>201.7290089717984</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="E45" t="n">
-        <v>28.16580509321281</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="F45" t="n">
-        <v>28.16580509321281</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="G45" t="n">
-        <v>28.16580509321281</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="H45" t="n">
-        <v>28.16580509321281</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="I45" t="n">
-        <v>28.16580509321281</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="J45" t="n">
-        <v>28.16580509321281</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="K45" t="n">
-        <v>67.04695151300419</v>
+        <v>67.04695151300422</v>
       </c>
       <c r="L45" t="n">
-        <v>185.6139934405095</v>
+        <v>185.6139934405096</v>
       </c>
       <c r="M45" t="n">
-        <v>368.7308031412892</v>
+        <v>368.7308031412894</v>
       </c>
       <c r="N45" t="n">
-        <v>575.1140594806553</v>
+        <v>575.1140594806554</v>
       </c>
       <c r="O45" t="n">
-        <v>708.1673364289387</v>
+        <v>708.1673364289388</v>
       </c>
       <c r="P45" t="n">
-        <v>792.8778196179259</v>
+        <v>792.8778196179261</v>
       </c>
       <c r="Q45" t="n">
-        <v>792.8778196179259</v>
+        <v>786.6792477782639</v>
       </c>
       <c r="R45" t="n">
-        <v>792.8778196179259</v>
+        <v>786.6792477782639</v>
       </c>
       <c r="S45" t="n">
-        <v>660.5932225890981</v>
+        <v>786.6792477782639</v>
       </c>
       <c r="T45" t="n">
-        <v>660.5932225890981</v>
+        <v>786.6792477782639</v>
       </c>
       <c r="U45" t="n">
-        <v>660.5932225890981</v>
+        <v>547.0553166864513</v>
       </c>
       <c r="V45" t="n">
-        <v>660.5398525085433</v>
+        <v>547.0019466058965</v>
       </c>
       <c r="W45" t="n">
-        <v>391.1412832388346</v>
+        <v>473.3144925411888</v>
       </c>
       <c r="X45" t="n">
-        <v>391.1412832388346</v>
+        <v>253.8064981578852</v>
       </c>
       <c r="Y45" t="n">
-        <v>391.1412832388346</v>
+        <v>28.1658050932128</v>
       </c>
     </row>
     <row r="46">
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.16580509321281</v>
+        <v>60.30565623490433</v>
       </c>
       <c r="C46" t="n">
-        <v>28.16580509321281</v>
+        <v>60.30565623490433</v>
       </c>
       <c r="D46" t="n">
-        <v>28.16580509321281</v>
+        <v>60.30565623490433</v>
       </c>
       <c r="E46" t="n">
-        <v>28.16580509321281</v>
+        <v>60.30565623490433</v>
       </c>
       <c r="F46" t="n">
-        <v>28.16580509321281</v>
+        <v>60.30565623490433</v>
       </c>
       <c r="G46" t="n">
-        <v>28.16580509321281</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2321417622894</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="I46" t="n">
-        <v>102.2321417622894</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="J46" t="n">
-        <v>102.2321417622894</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="K46" t="n">
-        <v>102.2321417622894</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="L46" t="n">
-        <v>102.2321417622894</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="M46" t="n">
-        <v>102.2321417622894</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="N46" t="n">
-        <v>102.2321417622894</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="O46" t="n">
         <v>131.4867779132288</v>
@@ -7843,13 +7843,13 @@
         <v>78.38259555147786</v>
       </c>
       <c r="W46" t="n">
-        <v>28.16580509321281</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="X46" t="n">
-        <v>28.16580509321281</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.16580509321281</v>
+        <v>28.1658050932128</v>
       </c>
     </row>
   </sheetData>
@@ -8775,13 +8775,13 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
-        <v>238.8597051383727</v>
+        <v>238.8597051383726</v>
       </c>
       <c r="N12" t="n">
-        <v>102.1459228782933</v>
+        <v>218.7578141968567</v>
       </c>
       <c r="O12" t="n">
-        <v>237.4374247671738</v>
+        <v>120.8255334486102</v>
       </c>
       <c r="P12" t="n">
         <v>206.3638740786793</v>
@@ -9006,16 +9006,16 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>171.373473584151</v>
+        <v>132.0995883116344</v>
       </c>
       <c r="L15" t="n">
-        <v>240.3045437566416</v>
+        <v>152.0917238005122</v>
       </c>
       <c r="M15" t="n">
-        <v>233.4222981833314</v>
+        <v>238.8597051383726</v>
       </c>
       <c r="N15" t="n">
-        <v>102.1459228782933</v>
+        <v>224.195221151898</v>
       </c>
       <c r="O15" t="n">
         <v>242.8748317222149</v>
@@ -9243,22 +9243,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>171.373473584151</v>
+        <v>132.0995883116344</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
-        <v>196.9391445450673</v>
+        <v>238.8597051383726</v>
       </c>
       <c r="N18" t="n">
         <v>224.195221151898</v>
       </c>
       <c r="O18" t="n">
-        <v>242.8748317222149</v>
+        <v>154.6620117660856</v>
       </c>
       <c r="P18" t="n">
-        <v>120.7977294433387</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9486,16 +9486,16 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M21" t="n">
-        <v>116.8104068647679</v>
+        <v>238.8597051383726</v>
       </c>
       <c r="N21" t="n">
-        <v>224.195221151898</v>
+        <v>182.2746605585927</v>
       </c>
       <c r="O21" t="n">
         <v>242.8748317222149</v>
       </c>
       <c r="P21" t="n">
-        <v>200.9264671236381</v>
+        <v>120.7977294433387</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9720,10 +9720,10 @@
         <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
-        <v>234.8671368015999</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M24" t="n">
-        <v>238.8597051383724</v>
+        <v>233.4222981833309</v>
       </c>
       <c r="N24" t="n">
         <v>102.1459228782933</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>57.65546642937394</v>
+        <v>179.7047647029787</v>
       </c>
       <c r="C11" t="n">
         <v>155.8230217063242</v>
       </c>
       <c r="D11" t="n">
-        <v>143.3896839673726</v>
+        <v>21.34038569376796</v>
       </c>
       <c r="E11" t="n">
-        <v>55.04713811317677</v>
+        <v>177.0964363867815</v>
       </c>
       <c r="F11" t="n">
-        <v>208.8167739651588</v>
+        <v>86.76747569155415</v>
       </c>
       <c r="G11" t="n">
-        <v>102.395668589967</v>
+        <v>224.4449668635718</v>
       </c>
       <c r="H11" t="n">
-        <v>152.5290299766312</v>
+        <v>30.47973170302652</v>
       </c>
       <c r="I11" t="n">
-        <v>46.2136088607983</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.192618099030168</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>28.03643329293229</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>27.36979366689679</v>
       </c>
       <c r="V11" t="n">
         <v>126.4973079342974</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>179.7047647029787</v>
+        <v>57.65546642937397</v>
       </c>
       <c r="C14" t="n">
-        <v>155.8230217063242</v>
+        <v>155.8230217063241</v>
       </c>
       <c r="D14" t="n">
         <v>143.3896839673726</v>
@@ -23504,13 +23504,13 @@
         <v>177.0964363867815</v>
       </c>
       <c r="F14" t="n">
-        <v>86.76747569155415</v>
+        <v>208.8167739651588</v>
       </c>
       <c r="G14" t="n">
         <v>224.4449668635718</v>
       </c>
       <c r="H14" t="n">
-        <v>30.47973170302649</v>
+        <v>152.1680495526029</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>55.7672073838573</v>
       </c>
       <c r="V14" t="n">
-        <v>126.4973079342974</v>
+        <v>126.4973079342973</v>
       </c>
       <c r="W14" t="n">
         <v>143.5139881509122</v>
       </c>
       <c r="X14" t="n">
-        <v>98.75716730607563</v>
+        <v>43.35094034624677</v>
       </c>
       <c r="Y14" t="n">
-        <v>187.9030917435952</v>
+        <v>65.85379346999053</v>
       </c>
     </row>
     <row r="15">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>396869.3978294069</v>
+      </c>
+      <c r="C2" t="n">
         <v>396869.3978294068</v>
       </c>
-      <c r="C2" t="n">
-        <v>396869.397829407</v>
-      </c>
       <c r="D2" t="n">
-        <v>396869.3978294069</v>
+        <v>396869.3978294068</v>
       </c>
       <c r="E2" t="n">
-        <v>341995.5400592154</v>
+        <v>341995.5400592153</v>
       </c>
       <c r="F2" t="n">
-        <v>341995.5400592155</v>
+        <v>341995.5400592158</v>
       </c>
       <c r="G2" t="n">
-        <v>397673.3469863411</v>
+        <v>397673.346986341</v>
       </c>
       <c r="H2" t="n">
-        <v>397673.3469863411</v>
+        <v>397673.3469863412</v>
       </c>
       <c r="I2" t="n">
         <v>397673.3469863411</v>
       </c>
       <c r="J2" t="n">
-        <v>397673.3469863407</v>
+        <v>397673.3469863408</v>
       </c>
       <c r="K2" t="n">
-        <v>397673.3469863411</v>
+        <v>397673.3469863409</v>
       </c>
       <c r="L2" t="n">
-        <v>397673.3469863411</v>
+        <v>397673.3469863409</v>
       </c>
       <c r="M2" t="n">
-        <v>397673.3469863409</v>
+        <v>397673.3469863408</v>
       </c>
       <c r="N2" t="n">
         <v>397673.3469863409</v>
       </c>
       <c r="O2" t="n">
-        <v>397673.3469863408</v>
+        <v>397673.3469863409</v>
       </c>
       <c r="P2" t="n">
         <v>397673.3469863409</v>
@@ -26375,7 +26375,7 @@
         <v>275373.0470845676</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
         <v>101197.8463474379</v>
@@ -26396,13 +26396,13 @@
         <v>101197.8463474378</v>
       </c>
       <c r="M3" t="n">
-        <v>28140.86133097999</v>
+        <v>28140.86133097992</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>68716.99883240157</v>
+        <v>68716.99883240164</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26433,7 +26433,7 @@
         <v>420238.0338746423</v>
       </c>
       <c r="H4" t="n">
-        <v>420238.0338746423</v>
+        <v>420238.0338746422</v>
       </c>
       <c r="I4" t="n">
         <v>420238.0338746422</v>
@@ -26457,7 +26457,7 @@
         <v>418653.3257278842</v>
       </c>
       <c r="P4" t="n">
-        <v>418653.3257278843</v>
+        <v>418653.3257278842</v>
       </c>
     </row>
     <row r="5">
@@ -26485,7 +26485,7 @@
         <v>36660.36444407675</v>
       </c>
       <c r="H5" t="n">
-        <v>36660.36444407675</v>
+        <v>36660.36444407674</v>
       </c>
       <c r="I5" t="n">
         <v>36660.36444407673</v>
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-93434.85324638846</v>
+        <v>-93439.3196305936</v>
       </c>
       <c r="C6" t="n">
-        <v>-93434.85324638835</v>
+        <v>-93439.31963059366</v>
       </c>
       <c r="D6" t="n">
-        <v>-93434.8532463884</v>
+        <v>-93439.31963059372</v>
       </c>
       <c r="E6" t="n">
-        <v>-309137.8931347594</v>
+        <v>-309447.2142843546</v>
       </c>
       <c r="F6" t="n">
-        <v>-33764.84605019166</v>
+        <v>-34074.16719978658</v>
       </c>
       <c r="G6" t="n">
-        <v>-160422.8976798158</v>
+        <v>-160422.8976798159</v>
       </c>
       <c r="H6" t="n">
-        <v>-59225.05133237797</v>
+        <v>-59225.05133237773</v>
       </c>
       <c r="I6" t="n">
         <v>-59225.05133237789</v>
@@ -26546,22 +26546,22 @@
         <v>-224190.0737493588</v>
       </c>
       <c r="K6" t="n">
-        <v>-69002.02493858567</v>
+        <v>-69002.02493858579</v>
       </c>
       <c r="L6" t="n">
-        <v>-170199.8712860235</v>
+        <v>-170199.8712860236</v>
       </c>
       <c r="M6" t="n">
         <v>-92137.95062362314</v>
       </c>
       <c r="N6" t="n">
-        <v>-63997.08929264317</v>
+        <v>-63997.08929264311</v>
       </c>
       <c r="O6" t="n">
         <v>-133593.3862564182</v>
       </c>
       <c r="P6" t="n">
-        <v>-64876.38742401669</v>
+        <v>-64876.38742401663</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>194.3824756748546</v>
       </c>
       <c r="F2" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="G2" t="n">
         <v>320.879783609152</v>
@@ -26713,7 +26713,7 @@
         <v>212.9171572481403</v>
       </c>
       <c r="L2" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="M2" t="n">
         <v>248.0932339118652</v>
@@ -26777,7 +26777,7 @@
         <v>103.8405771010907</v>
       </c>
       <c r="P3" t="n">
-        <v>103.8405771010907</v>
+        <v>103.8405771010908</v>
       </c>
     </row>
     <row r="4">
@@ -26829,7 +26829,7 @@
         <v>352.07256366516</v>
       </c>
       <c r="P4" t="n">
-        <v>352.0725636651601</v>
+        <v>352.07256366516</v>
       </c>
     </row>
   </sheetData>
@@ -26917,10 +26917,10 @@
         <v>194.3824756748546</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>126.4973079342974</v>
+        <v>126.4973079342973</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>86.41984931384295</v>
+        <v>86.41984931384303</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>126.4973079342973</v>
       </c>
       <c r="M2" t="n">
-        <v>35.17607666372498</v>
+        <v>35.1760766637249</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>78.92269993763065</v>
+        <v>78.92269993763074</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>194.3824756748546</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>126.4973079342974</v>
+        <v>126.4973079342973</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>86.41984931384295</v>
+        <v>86.41984931384303</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28111,13 +28111,13 @@
         <v>194.3824756748546</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9226787399453</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="K11" t="n">
-        <v>127.4115402197618</v>
+        <v>123.1149299554395</v>
       </c>
       <c r="L11" t="n">
-        <v>73.16318667058728</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -28129,10 +28129,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>13.54892393491829</v>
+        <v>13.54892393491828</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.55297193870601</v>
+        <v>88.55297193870599</v>
       </c>
       <c r="R11" t="n">
         <v>194.3824756748546</v>
@@ -28181,7 +28181,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.7388631915159</v>
+        <v>37.20715584944064</v>
       </c>
       <c r="H12" t="n">
         <v>125.6800758778345</v>
@@ -28214,13 +28214,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>134.3633376148752</v>
+        <v>12.31403934127055</v>
       </c>
       <c r="S12" t="n">
-        <v>69.43485123072091</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T12" t="n">
-        <v>175.8982561472128</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="U12" t="n">
         <v>194.3824756748546</v>
@@ -28235,7 +28235,7 @@
         <v>194.3824756748546</v>
       </c>
       <c r="Y12" t="n">
-        <v>101.3349878604209</v>
+        <v>194.3824756748546</v>
       </c>
     </row>
     <row r="13">
@@ -28245,25 +28245,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>177.6169206649681</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="C13" t="n">
-        <v>166.4571809719723</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="D13" t="n">
-        <v>194.3824756748546</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9311398084575</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="G13" t="n">
         <v>168.6959616282545</v>
       </c>
       <c r="H13" t="n">
-        <v>194.3824756748546</v>
+        <v>165.7816030517371</v>
       </c>
       <c r="I13" t="n">
         <v>164.7082190429236</v>
@@ -28275,19 +28275,19 @@
         <v>66.47076232176849</v>
       </c>
       <c r="L13" t="n">
-        <v>31.4362099738353</v>
+        <v>153.48550824744</v>
       </c>
       <c r="M13" t="n">
-        <v>24.46235891800153</v>
+        <v>38.12087138609701</v>
       </c>
       <c r="N13" t="n">
-        <v>15.78359136610014</v>
+        <v>15.78359136610013</v>
       </c>
       <c r="O13" t="n">
         <v>36.7985460771767</v>
       </c>
       <c r="P13" t="n">
-        <v>179.9457505507726</v>
+        <v>57.89645227716785</v>
       </c>
       <c r="Q13" t="n">
         <v>194.3824756748546</v>
@@ -28324,34 +28324,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="C14" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="D14" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="E14" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="F14" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="G14" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="H14" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="I14" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="J14" t="n">
-        <v>75.87088762177228</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="K14" t="n">
-        <v>13.74771599876854</v>
+        <v>5.362241946157042</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28366,34 +28366,34 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>135.598222208523</v>
+        <v>25.47210820805205</v>
       </c>
       <c r="Q14" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="R14" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="S14" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="T14" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="U14" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="V14" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="W14" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="X14" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="Y14" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
     </row>
     <row r="15">
@@ -28406,7 +28406,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>187.5181515243659</v>
+        <v>65.46885325076124</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -28427,7 +28427,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J15" t="n">
-        <v>51.93274503525225</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,7 +28448,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.136586121265648</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>134.3633376148752</v>
@@ -28457,22 +28457,22 @@
         <v>191.4841495043256</v>
       </c>
       <c r="T15" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="U15" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="V15" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="W15" t="n">
-        <v>144.6552853034069</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="X15" t="n">
-        <v>97.43956212379042</v>
+        <v>134.7835133680314</v>
       </c>
       <c r="Y15" t="n">
-        <v>101.3349878604209</v>
+        <v>194.3824756748547</v>
       </c>
     </row>
     <row r="16">
@@ -28482,25 +28482,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>177.6169206649681</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4571809719723</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="G16" t="n">
-        <v>168.6959616282545</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="H16" t="n">
-        <v>165.7816030517371</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="I16" t="n">
         <v>164.7082190429236</v>
@@ -28518,40 +28518,40 @@
         <v>24.46235891800153</v>
       </c>
       <c r="N16" t="n">
-        <v>82.02241705380166</v>
+        <v>137.3495617333208</v>
       </c>
       <c r="O16" t="n">
-        <v>158.8478443507814</v>
+        <v>36.7985460771767</v>
       </c>
       <c r="P16" t="n">
-        <v>179.9457505507725</v>
+        <v>57.89645227716785</v>
       </c>
       <c r="Q16" t="n">
-        <v>194.3824756748546</v>
+        <v>126.8139378168763</v>
       </c>
       <c r="R16" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="S16" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="T16" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="U16" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="V16" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="W16" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="X16" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="Y16" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
     </row>
     <row r="17">
@@ -28588,7 +28588,7 @@
         <v>75.87088762177228</v>
       </c>
       <c r="K17" t="n">
-        <v>5.362241946157049</v>
+        <v>5.362241946157042</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,22 +28603,22 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.54892393491829</v>
+        <v>13.54892393491828</v>
       </c>
       <c r="Q17" t="n">
-        <v>210.6022702123107</v>
+        <v>88.55297193870599</v>
       </c>
       <c r="R17" t="n">
-        <v>228.3137543901158</v>
+        <v>194.2075003718244</v>
       </c>
       <c r="S17" t="n">
         <v>227.2724750164867</v>
       </c>
       <c r="T17" t="n">
-        <v>222.4189089677869</v>
+        <v>307.8443607092429</v>
       </c>
       <c r="U17" t="n">
-        <v>250.149683058712</v>
+        <v>320.879783609152</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -28640,16 +28640,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>54.70119612406106</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>138.0864607614929</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>49.778273566195</v>
       </c>
       <c r="F18" t="n">
         <v>158.8234391199283</v>
@@ -28691,25 +28691,25 @@
         <v>134.3633376148752</v>
       </c>
       <c r="S18" t="n">
-        <v>191.4841495043256</v>
+        <v>69.43485123072097</v>
       </c>
       <c r="T18" t="n">
         <v>214.9477822055827</v>
       </c>
       <c r="U18" t="n">
-        <v>115.1783935072898</v>
+        <v>237.2276917808945</v>
       </c>
       <c r="V18" t="n">
-        <v>191.2172301525292</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>144.6552853034069</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>101.3349878604209</v>
       </c>
     </row>
     <row r="19">
@@ -28755,7 +28755,7 @@
         <v>24.46235891800153</v>
       </c>
       <c r="N19" t="n">
-        <v>15.78359136610014</v>
+        <v>15.78359136610013</v>
       </c>
       <c r="O19" t="n">
         <v>36.7985460771767</v>
@@ -28825,7 +28825,7 @@
         <v>75.87088762177228</v>
       </c>
       <c r="K20" t="n">
-        <v>5.362241946157049</v>
+        <v>5.362241946157042</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,13 +28840,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>71.24360158544926</v>
+        <v>13.54892393491828</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.55297193870601</v>
+        <v>88.55297193870599</v>
       </c>
       <c r="R20" t="n">
-        <v>194.2075003718244</v>
+        <v>251.9021780223554</v>
       </c>
       <c r="S20" t="n">
         <v>227.2724750164867</v>
@@ -28877,10 +28877,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>54.70119612406106</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>65.46885325076124</v>
+        <v>187.182868578696</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
@@ -28898,10 +28898,10 @@
         <v>125.6800758778345</v>
       </c>
       <c r="I21" t="n">
-        <v>107.1657389737211</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>51.93274503525225</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,7 +28922,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.136586121265644</v>
       </c>
       <c r="R21" t="n">
         <v>134.3633376148752</v>
@@ -28934,10 +28934,10 @@
         <v>214.9477822055827</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2276917808945</v>
+        <v>115.1783935072898</v>
       </c>
       <c r="V21" t="n">
-        <v>191.2172301525292</v>
+        <v>118.5996226417976</v>
       </c>
       <c r="W21" t="n">
         <v>144.6552853034069</v>
@@ -28992,7 +28992,7 @@
         <v>24.46235891800153</v>
       </c>
       <c r="N22" t="n">
-        <v>15.78359136610014</v>
+        <v>15.78359136610013</v>
       </c>
       <c r="O22" t="n">
         <v>36.7985460771767</v>
@@ -29062,7 +29062,7 @@
         <v>75.87088762177228</v>
       </c>
       <c r="K23" t="n">
-        <v>5.362241946157049</v>
+        <v>5.362241946157042</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29074,25 +29074,25 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>44.37106813136417</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13.54892393491829</v>
+        <v>13.54892393491828</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.55297193870601</v>
+        <v>88.55297193870599</v>
       </c>
       <c r="R23" t="n">
         <v>194.2075003718244</v>
       </c>
       <c r="S23" t="n">
-        <v>320.879783609152</v>
+        <v>294.5207511900762</v>
       </c>
       <c r="T23" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="U23" t="n">
-        <v>250.149683058712</v>
+        <v>320.879783609152</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>54.7011961240612</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
         <v>187.5181515243659</v>
@@ -29129,7 +29129,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>99.307172428643</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H24" t="n">
         <v>125.6800758778345</v>
@@ -29138,7 +29138,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>51.93274503525225</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,13 +29159,13 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.136586121265644</v>
       </c>
       <c r="R24" t="n">
-        <v>12.31403934127069</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S24" t="n">
-        <v>69.43485123072111</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T24" t="n">
         <v>214.9477822055827</v>
@@ -29174,16 +29174,16 @@
         <v>237.2276917808945</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>133.1478989960114</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>144.6552853034071</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>95.26361616586607</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>101.3349878604211</v>
       </c>
     </row>
     <row r="25">
@@ -29229,7 +29229,7 @@
         <v>24.46235891800153</v>
       </c>
       <c r="N25" t="n">
-        <v>15.78359136610014</v>
+        <v>15.78359136610013</v>
       </c>
       <c r="O25" t="n">
         <v>36.7985460771767</v>
@@ -29296,7 +29296,7 @@
         <v>212.9171572481403</v>
       </c>
       <c r="J26" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481399</v>
       </c>
       <c r="K26" t="n">
         <v>212.9171572481403</v>
@@ -29314,7 +29314,7 @@
         <v>212.9171572481403</v>
       </c>
       <c r="P26" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="Q26" t="n">
         <v>212.9171572481403</v>
@@ -29363,19 +29363,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>156.5408350538312</v>
       </c>
       <c r="G27" t="n">
         <v>148.7388631915159</v>
       </c>
       <c r="H27" t="n">
-        <v>125.6800758778345</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>107.1657389737211</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>51.93274503525225</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,28 +29396,28 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.136586121265648</v>
+        <v>6.136586121265644</v>
       </c>
       <c r="R27" t="n">
-        <v>134.3633376148752</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>191.4841495043256</v>
       </c>
       <c r="T27" t="n">
-        <v>212.9171572481403</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>212.9171572481403</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="W27" t="n">
-        <v>4.409812928500514</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="Y27" t="n">
         <v>212.9171572481403</v>
@@ -29460,22 +29460,22 @@
         <v>66.47076232176849</v>
       </c>
       <c r="L28" t="n">
-        <v>181.8515074435206</v>
+        <v>31.4362099738353</v>
       </c>
       <c r="M28" t="n">
-        <v>24.46235891800153</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="N28" t="n">
-        <v>15.78359136610014</v>
+        <v>15.78359136610013</v>
       </c>
       <c r="O28" t="n">
-        <v>36.7985460771767</v>
+        <v>84.86226464798699</v>
       </c>
       <c r="P28" t="n">
         <v>57.89645227716785</v>
       </c>
       <c r="Q28" t="n">
-        <v>212.9171572481403</v>
+        <v>126.8139378168763</v>
       </c>
       <c r="R28" t="n">
         <v>203.2135377342752</v>
@@ -29588,13 +29588,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
@@ -29603,16 +29603,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.7388631915159</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>125.6800758778345</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>107.1657389737211</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>51.93274503525225</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,19 +29633,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.136586121265648</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>134.3633376148752</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T30" t="n">
         <v>212.9171572481403</v>
       </c>
       <c r="U30" t="n">
-        <v>212.9171572481403</v>
+        <v>152.5928452466844</v>
       </c>
       <c r="V30" t="n">
         <v>212.9171572481403</v>
@@ -29654,7 +29654,7 @@
         <v>212.9171572481403</v>
       </c>
       <c r="X30" t="n">
-        <v>105.9824574107898</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="Y30" t="n">
         <v>212.9171572481403</v>
@@ -29688,28 +29688,28 @@
         <v>165.7816030517371</v>
       </c>
       <c r="I31" t="n">
-        <v>164.7082190429236</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="J31" t="n">
-        <v>119.8993073508208</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="K31" t="n">
-        <v>66.47076232176849</v>
+        <v>161.7624911201816</v>
       </c>
       <c r="L31" t="n">
-        <v>212.9171572481403</v>
+        <v>31.4362099738353</v>
       </c>
       <c r="M31" t="n">
         <v>24.46235891800153</v>
       </c>
       <c r="N31" t="n">
-        <v>15.78359136610014</v>
+        <v>15.78359136610013</v>
       </c>
       <c r="O31" t="n">
         <v>36.7985460771767</v>
       </c>
       <c r="P31" t="n">
-        <v>112.9340219038122</v>
+        <v>57.89645227716785</v>
       </c>
       <c r="Q31" t="n">
         <v>126.8139378168763</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="C32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="D32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="E32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="F32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="G32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="H32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="I32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="J32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="K32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="L32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="M32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="N32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481408</v>
       </c>
       <c r="O32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="P32" t="n">
-        <v>212.9171572481413</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="R32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="S32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="T32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="U32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="V32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="W32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="X32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="Y32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
     </row>
     <row r="33">
@@ -29828,10 +29828,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>42.99981874475216</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -29840,7 +29840,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>57.96537258346414</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H33" t="n">
         <v>125.6800758778345</v>
@@ -29849,7 +29849,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J33" t="n">
-        <v>51.93274503525225</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.136586121265648</v>
+        <v>6.136586121265633</v>
       </c>
       <c r="R33" t="n">
         <v>134.3633376148752</v>
@@ -29879,22 +29879,22 @@
         <v>191.4841495043256</v>
       </c>
       <c r="T33" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="U33" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="W33" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="X33" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="Y33" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
     </row>
     <row r="34">
@@ -29904,19 +29904,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>212.9171572481402</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>212.9171572481402</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>212.9171572481402</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>212.9171572481402</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>145.0060437128468</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
         <v>168.6959616282545</v>
@@ -29925,7 +29925,7 @@
         <v>165.7816030517371</v>
       </c>
       <c r="I34" t="n">
-        <v>164.7082190429236</v>
+        <v>164.7082190429235</v>
       </c>
       <c r="J34" t="n">
         <v>119.8993073508208</v>
@@ -29934,46 +29934,46 @@
         <v>66.47076232176849</v>
       </c>
       <c r="L34" t="n">
-        <v>31.4362099738353</v>
+        <v>31.43620997383529</v>
       </c>
       <c r="M34" t="n">
-        <v>24.46235891800153</v>
+        <v>24.46235891800152</v>
       </c>
       <c r="N34" t="n">
-        <v>15.78359136610014</v>
+        <v>15.78359136610012</v>
       </c>
       <c r="O34" t="n">
-        <v>36.7985460771767</v>
+        <v>36.79854607717668</v>
       </c>
       <c r="P34" t="n">
-        <v>57.89645227716785</v>
+        <v>198.6081302329886</v>
       </c>
       <c r="Q34" t="n">
-        <v>126.8139378168763</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="R34" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="S34" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="T34" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="U34" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="V34" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="W34" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="X34" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="Y34" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
     </row>
     <row r="35">
@@ -30010,22 +30010,22 @@
         <v>248.0932339118652</v>
       </c>
       <c r="K35" t="n">
-        <v>124.9811802076627</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>138.5301041425806</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
         <v>248.0932339118652</v>
-      </c>
-      <c r="O35" t="n">
-        <v>248.0932339118652</v>
-      </c>
-      <c r="P35" t="n">
-        <v>13.54892393491829</v>
       </c>
       <c r="Q35" t="n">
         <v>248.0932339118652</v>
@@ -30071,22 +30071,22 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.7388631915159</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>125.6800758778345</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>107.1657389737211</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>51.93274503525225</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,28 +30107,28 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.136586121265648</v>
+        <v>6.136586121265633</v>
       </c>
       <c r="R36" t="n">
-        <v>134.3633376148752</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>191.4841495043256</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9477822055827</v>
       </c>
       <c r="U36" t="n">
         <v>237.2276917808945</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>182.5493067580013</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>166.6349572228975</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30147,7 +30147,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D37" t="n">
-        <v>145.1826502507107</v>
+        <v>229.64396408664</v>
       </c>
       <c r="E37" t="n">
         <v>141.676141212225</v>
@@ -30162,7 +30162,7 @@
         <v>165.7816030517371</v>
       </c>
       <c r="I37" t="n">
-        <v>164.7082190429236</v>
+        <v>164.7082190429235</v>
       </c>
       <c r="J37" t="n">
         <v>119.8993073508208</v>
@@ -30171,19 +30171,19 @@
         <v>66.47076232176849</v>
       </c>
       <c r="L37" t="n">
-        <v>31.4362099738353</v>
+        <v>31.43620997383529</v>
       </c>
       <c r="M37" t="n">
-        <v>24.46235891800153</v>
+        <v>24.46235891800152</v>
       </c>
       <c r="N37" t="n">
-        <v>15.78359136610014</v>
+        <v>15.78359136610012</v>
       </c>
       <c r="O37" t="n">
-        <v>36.7985460771767</v>
+        <v>36.79854607717668</v>
       </c>
       <c r="P37" t="n">
-        <v>142.3577661130971</v>
+        <v>57.89645227716784</v>
       </c>
       <c r="Q37" t="n">
         <v>126.8139378168763</v>
@@ -30241,31 +30241,31 @@
         <v>248.0932339118652</v>
       </c>
       <c r="I38" t="n">
-        <v>248.0932339118652</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="J38" t="n">
-        <v>248.0932339118652</v>
+        <v>75.87088762177225</v>
       </c>
       <c r="K38" t="n">
-        <v>5.362241946157049</v>
+        <v>5.36224194615702</v>
       </c>
       <c r="L38" t="n">
-        <v>248.0932339118652</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>245.3274290416891</v>
       </c>
       <c r="N38" t="n">
         <v>248.0932339118652</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>67.55992882103978</v>
       </c>
       <c r="P38" t="n">
         <v>248.0932339118652</v>
       </c>
       <c r="Q38" t="n">
-        <v>133.1678621964238</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="R38" t="n">
         <v>248.0932339118652</v>
@@ -30299,22 +30299,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>115.6384272440187</v>
       </c>
       <c r="C39" t="n">
-        <v>158.2241994893681</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H39" t="n">
         <v>125.6800758778345</v>
@@ -30323,7 +30323,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J39" t="n">
-        <v>51.93274503525225</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,10 +30344,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.136586121265633</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S39" t="n">
         <v>191.4841495043256</v>
@@ -30362,7 +30362,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -30381,7 +30381,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
-        <v>238.1794225896037</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D40" t="n">
         <v>145.1826502507107</v>
@@ -30393,13 +30393,13 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>168.6959616282545</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="H40" t="n">
-        <v>165.7816030517371</v>
+        <v>170.8456446040557</v>
       </c>
       <c r="I40" t="n">
-        <v>164.7082190429236</v>
+        <v>164.7082190429235</v>
       </c>
       <c r="J40" t="n">
         <v>119.8993073508208</v>
@@ -30408,19 +30408,19 @@
         <v>66.47076232176849</v>
       </c>
       <c r="L40" t="n">
-        <v>31.4362099738353</v>
+        <v>31.43620997383529</v>
       </c>
       <c r="M40" t="n">
-        <v>24.46235891800153</v>
+        <v>24.46235891800152</v>
       </c>
       <c r="N40" t="n">
-        <v>15.78359136610014</v>
+        <v>15.78359136610012</v>
       </c>
       <c r="O40" t="n">
-        <v>36.7985460771767</v>
+        <v>36.79854607717668</v>
       </c>
       <c r="P40" t="n">
-        <v>57.89645227716785</v>
+        <v>57.89645227716784</v>
       </c>
       <c r="Q40" t="n">
         <v>126.8139378168763</v>
@@ -30429,7 +30429,7 @@
         <v>203.2135377342752</v>
       </c>
       <c r="S40" t="n">
-        <v>248.0932339118652</v>
+        <v>235.3541616935673</v>
       </c>
       <c r="T40" t="n">
         <v>223.7409925368498</v>
@@ -30484,19 +30484,19 @@
         <v>240.5960845356529</v>
       </c>
       <c r="K41" t="n">
-        <v>5.362241946157049</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="L41" t="n">
-        <v>44.34143518913812</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="N41" t="n">
-        <v>240.5960845356529</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>240.5960845356529</v>
+        <v>49.70367713529485</v>
       </c>
       <c r="P41" t="n">
         <v>240.5960845356529</v>
@@ -30542,7 +30542,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -30560,7 +30560,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J42" t="n">
-        <v>16.2977189153042</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.136586121265648</v>
+        <v>6.136586121265633</v>
       </c>
       <c r="R42" t="n">
         <v>134.3633376148752</v>
@@ -30605,7 +30605,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>28.57694493749895</v>
       </c>
     </row>
     <row r="43">
@@ -30633,10 +30633,10 @@
         <v>168.6959616282545</v>
       </c>
       <c r="H43" t="n">
-        <v>165.7816030517371</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="I43" t="n">
-        <v>164.7082190429236</v>
+        <v>164.7082190429235</v>
       </c>
       <c r="J43" t="n">
         <v>119.8993073508208</v>
@@ -30645,25 +30645,25 @@
         <v>66.47076232176849</v>
       </c>
       <c r="L43" t="n">
-        <v>31.4362099738353</v>
+        <v>31.43620997383529</v>
       </c>
       <c r="M43" t="n">
-        <v>24.46235891800153</v>
+        <v>24.46235891800152</v>
       </c>
       <c r="N43" t="n">
-        <v>15.78359136610014</v>
+        <v>15.78359136610012</v>
       </c>
       <c r="O43" t="n">
-        <v>141.1631650872939</v>
+        <v>36.79854607717668</v>
       </c>
       <c r="P43" t="n">
-        <v>57.89645227716785</v>
+        <v>57.89645227716784</v>
       </c>
       <c r="Q43" t="n">
         <v>126.8139378168763</v>
       </c>
       <c r="R43" t="n">
-        <v>203.2135377342752</v>
+        <v>232.7636752604766</v>
       </c>
       <c r="S43" t="n">
         <v>235.3541616935673</v>
@@ -30724,22 +30724,22 @@
         <v>240.5960845356529</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>188.1978657973234</v>
       </c>
       <c r="M44" t="n">
-        <v>49.70367713529554</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="P44" t="n">
-        <v>240.5960845356529</v>
+        <v>13.54892393491824</v>
       </c>
       <c r="Q44" t="n">
-        <v>240.5960845356529</v>
+        <v>88.55297193870597</v>
       </c>
       <c r="R44" t="n">
         <v>240.5960845356529</v>
@@ -30776,13 +30776,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
         <v>158.8234391199283</v>
@@ -30797,7 +30797,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J45" t="n">
-        <v>51.93274503525225</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,31 +30818,31 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.136586121265648</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>134.3633376148752</v>
       </c>
       <c r="S45" t="n">
-        <v>60.52239844578617</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T45" t="n">
         <v>214.9477822055827</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2276917808945</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>193.754004052951</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>177.6169206649681</v>
+        <v>210.0814167676868</v>
       </c>
       <c r="C46" t="n">
         <v>166.4571809719723</v>
@@ -30867,34 +30867,34 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.6959616282545</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="H46" t="n">
-        <v>240.5960845356529</v>
+        <v>165.7816030517371</v>
       </c>
       <c r="I46" t="n">
-        <v>164.7082190429236</v>
+        <v>164.7082190429235</v>
       </c>
       <c r="J46" t="n">
         <v>119.8993073508208</v>
       </c>
       <c r="K46" t="n">
-        <v>66.47076232176849</v>
+        <v>66.47076232176848</v>
       </c>
       <c r="L46" t="n">
-        <v>31.4362099738353</v>
+        <v>31.43620997383528</v>
       </c>
       <c r="M46" t="n">
-        <v>24.46235891800153</v>
+        <v>24.46235891800151</v>
       </c>
       <c r="N46" t="n">
-        <v>15.78359136610014</v>
+        <v>15.78359136610011</v>
       </c>
       <c r="O46" t="n">
-        <v>66.34868360337808</v>
+        <v>36.79854607717668</v>
       </c>
       <c r="P46" t="n">
-        <v>57.89645227716785</v>
+        <v>57.89645227716784</v>
       </c>
       <c r="Q46" t="n">
         <v>126.8139378168763</v>
@@ -31750,22 +31750,22 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4174495561852888</v>
+        <v>0.4174495561852889</v>
       </c>
       <c r="H11" t="n">
         <v>4.27520526728259</v>
       </c>
       <c r="I11" t="n">
-        <v>16.09372401483336</v>
+        <v>16.09372401483337</v>
       </c>
       <c r="J11" t="n">
-        <v>35.43050926928119</v>
+        <v>35.4305092692812</v>
       </c>
       <c r="K11" t="n">
-        <v>53.10114898260448</v>
+        <v>53.10114898260449</v>
       </c>
       <c r="L11" t="n">
-        <v>65.87667083771002</v>
+        <v>65.87667083771004</v>
       </c>
       <c r="M11" t="n">
         <v>73.30048938252015</v>
@@ -31774,25 +31774,25 @@
         <v>74.48656793403161</v>
       </c>
       <c r="O11" t="n">
-        <v>70.33555390971414</v>
+        <v>70.33555390971415</v>
       </c>
       <c r="P11" t="n">
-        <v>60.02976799138981</v>
+        <v>60.02976799138982</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.07985576050414</v>
+        <v>45.07985576050415</v>
       </c>
       <c r="R11" t="n">
-        <v>26.22261568372417</v>
+        <v>26.22261568372418</v>
       </c>
       <c r="S11" t="n">
-        <v>9.512631761572278</v>
+        <v>9.51263176157228</v>
       </c>
       <c r="T11" t="n">
         <v>1.827385432201103</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0333959644948231</v>
+        <v>0.03339596449482311</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,28 +31835,28 @@
         <v>2.15714104506228</v>
       </c>
       <c r="I12" t="n">
-        <v>7.690080473995867</v>
+        <v>7.690080473995868</v>
       </c>
       <c r="J12" t="n">
-        <v>21.10216859749617</v>
+        <v>21.10216859749618</v>
       </c>
       <c r="K12" t="n">
         <v>36.06696723708355</v>
       </c>
       <c r="L12" t="n">
-        <v>48.49648839046693</v>
+        <v>48.49648839046694</v>
       </c>
       <c r="M12" t="n">
-        <v>56.59311452009441</v>
+        <v>56.59311452009442</v>
       </c>
       <c r="N12" t="n">
-        <v>58.09096586337336</v>
+        <v>58.09096586337337</v>
       </c>
       <c r="O12" t="n">
-        <v>53.14188477361194</v>
+        <v>53.14188477361195</v>
       </c>
       <c r="P12" t="n">
-        <v>42.65104760214421</v>
+        <v>42.65104760214422</v>
       </c>
       <c r="Q12" t="n">
         <v>28.51109581085041</v>
@@ -31865,10 +31865,10 @@
         <v>13.86761518342491</v>
       </c>
       <c r="S12" t="n">
-        <v>4.148724943614328</v>
+        <v>4.148724943614329</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9002782109047386</v>
+        <v>0.9002782109047388</v>
       </c>
       <c r="U12" t="n">
         <v>0.0146944212878902</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1872534996904913</v>
+        <v>0.1872534996904914</v>
       </c>
       <c r="H13" t="n">
         <v>1.664853842702734</v>
       </c>
       <c r="I13" t="n">
-        <v>5.631223427055869</v>
+        <v>5.63122342705587</v>
       </c>
       <c r="J13" t="n">
         <v>13.23882242811774</v>
@@ -31932,7 +31932,7 @@
         <v>28.65489236627312</v>
       </c>
       <c r="O13" t="n">
-        <v>26.46743102897964</v>
+        <v>26.46743102897965</v>
       </c>
       <c r="P13" t="n">
         <v>22.6474596352936</v>
@@ -31941,16 +31941,16 @@
         <v>15.67992714226469</v>
       </c>
       <c r="R13" t="n">
-        <v>8.419598267901545</v>
+        <v>8.419598267901547</v>
       </c>
       <c r="S13" t="n">
         <v>3.263317808242471</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8000831350411901</v>
+        <v>0.8000831350411902</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01021382725584499</v>
+        <v>0.010213827255845</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,22 +31987,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4174495561852888</v>
+        <v>0.4174495561852889</v>
       </c>
       <c r="H14" t="n">
         <v>4.27520526728259</v>
       </c>
       <c r="I14" t="n">
-        <v>16.09372401483336</v>
+        <v>16.09372401483337</v>
       </c>
       <c r="J14" t="n">
-        <v>35.43050926928119</v>
+        <v>35.4305092692812</v>
       </c>
       <c r="K14" t="n">
-        <v>53.10114898260448</v>
+        <v>53.10114898260449</v>
       </c>
       <c r="L14" t="n">
-        <v>65.87667083771002</v>
+        <v>65.87667083771004</v>
       </c>
       <c r="M14" t="n">
         <v>73.30048938252015</v>
@@ -32011,25 +32011,25 @@
         <v>74.48656793403161</v>
       </c>
       <c r="O14" t="n">
-        <v>70.33555390971414</v>
+        <v>70.33555390971415</v>
       </c>
       <c r="P14" t="n">
-        <v>60.02976799138981</v>
+        <v>60.02976799138982</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.07985576050414</v>
+        <v>45.07985576050415</v>
       </c>
       <c r="R14" t="n">
-        <v>26.22261568372417</v>
+        <v>26.22261568372418</v>
       </c>
       <c r="S14" t="n">
-        <v>9.512631761572278</v>
+        <v>9.51263176157228</v>
       </c>
       <c r="T14" t="n">
         <v>1.827385432201103</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0333959644948231</v>
+        <v>0.03339596449482311</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,28 +32072,28 @@
         <v>2.15714104506228</v>
       </c>
       <c r="I15" t="n">
-        <v>7.690080473995867</v>
+        <v>7.690080473995868</v>
       </c>
       <c r="J15" t="n">
-        <v>21.10216859749617</v>
+        <v>21.10216859749618</v>
       </c>
       <c r="K15" t="n">
         <v>36.06696723708355</v>
       </c>
       <c r="L15" t="n">
-        <v>48.49648839046693</v>
+        <v>48.49648839046694</v>
       </c>
       <c r="M15" t="n">
-        <v>56.59311452009441</v>
+        <v>56.59311452009442</v>
       </c>
       <c r="N15" t="n">
-        <v>58.09096586337336</v>
+        <v>58.09096586337337</v>
       </c>
       <c r="O15" t="n">
-        <v>53.14188477361194</v>
+        <v>53.14188477361195</v>
       </c>
       <c r="P15" t="n">
-        <v>42.65104760214421</v>
+        <v>42.65104760214422</v>
       </c>
       <c r="Q15" t="n">
         <v>28.51109581085041</v>
@@ -32102,10 +32102,10 @@
         <v>13.86761518342491</v>
       </c>
       <c r="S15" t="n">
-        <v>4.148724943614328</v>
+        <v>4.148724943614329</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9002782109047386</v>
+        <v>0.9002782109047388</v>
       </c>
       <c r="U15" t="n">
         <v>0.0146944212878902</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1872534996904913</v>
+        <v>0.1872534996904914</v>
       </c>
       <c r="H16" t="n">
         <v>1.664853842702734</v>
       </c>
       <c r="I16" t="n">
-        <v>5.631223427055869</v>
+        <v>5.63122342705587</v>
       </c>
       <c r="J16" t="n">
         <v>13.23882242811774</v>
@@ -32169,7 +32169,7 @@
         <v>28.65489236627312</v>
       </c>
       <c r="O16" t="n">
-        <v>26.46743102897964</v>
+        <v>26.46743102897965</v>
       </c>
       <c r="P16" t="n">
         <v>22.6474596352936</v>
@@ -32178,16 +32178,16 @@
         <v>15.67992714226469</v>
       </c>
       <c r="R16" t="n">
-        <v>8.419598267901545</v>
+        <v>8.419598267901547</v>
       </c>
       <c r="S16" t="n">
         <v>3.263317808242471</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8000831350411901</v>
+        <v>0.8000831350411902</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01021382725584499</v>
+        <v>0.010213827255845</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,22 +32224,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4174495561852888</v>
+        <v>0.4174495561852889</v>
       </c>
       <c r="H17" t="n">
         <v>4.27520526728259</v>
       </c>
       <c r="I17" t="n">
-        <v>16.09372401483336</v>
+        <v>16.09372401483337</v>
       </c>
       <c r="J17" t="n">
-        <v>35.43050926928119</v>
+        <v>35.4305092692812</v>
       </c>
       <c r="K17" t="n">
-        <v>53.10114898260448</v>
+        <v>53.10114898260449</v>
       </c>
       <c r="L17" t="n">
-        <v>65.87667083771002</v>
+        <v>65.87667083771004</v>
       </c>
       <c r="M17" t="n">
         <v>73.30048938252015</v>
@@ -32248,25 +32248,25 @@
         <v>74.48656793403161</v>
       </c>
       <c r="O17" t="n">
-        <v>70.33555390971414</v>
+        <v>70.33555390971415</v>
       </c>
       <c r="P17" t="n">
-        <v>60.02976799138981</v>
+        <v>60.02976799138982</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.07985576050414</v>
+        <v>45.07985576050415</v>
       </c>
       <c r="R17" t="n">
-        <v>26.22261568372417</v>
+        <v>26.22261568372418</v>
       </c>
       <c r="S17" t="n">
-        <v>9.512631761572278</v>
+        <v>9.51263176157228</v>
       </c>
       <c r="T17" t="n">
         <v>1.827385432201103</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0333959644948231</v>
+        <v>0.03339596449482311</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,28 +32309,28 @@
         <v>2.15714104506228</v>
       </c>
       <c r="I18" t="n">
-        <v>7.690080473995867</v>
+        <v>7.690080473995868</v>
       </c>
       <c r="J18" t="n">
-        <v>21.10216859749617</v>
+        <v>21.10216859749618</v>
       </c>
       <c r="K18" t="n">
         <v>36.06696723708355</v>
       </c>
       <c r="L18" t="n">
-        <v>48.49648839046693</v>
+        <v>48.49648839046694</v>
       </c>
       <c r="M18" t="n">
-        <v>56.59311452009441</v>
+        <v>56.59311452009442</v>
       </c>
       <c r="N18" t="n">
-        <v>58.09096586337336</v>
+        <v>58.09096586337337</v>
       </c>
       <c r="O18" t="n">
-        <v>53.14188477361194</v>
+        <v>53.14188477361195</v>
       </c>
       <c r="P18" t="n">
-        <v>42.65104760214421</v>
+        <v>42.65104760214422</v>
       </c>
       <c r="Q18" t="n">
         <v>28.51109581085041</v>
@@ -32339,10 +32339,10 @@
         <v>13.86761518342491</v>
       </c>
       <c r="S18" t="n">
-        <v>4.148724943614328</v>
+        <v>4.148724943614329</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9002782109047386</v>
+        <v>0.9002782109047388</v>
       </c>
       <c r="U18" t="n">
         <v>0.0146944212878902</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1872534996904913</v>
+        <v>0.1872534996904914</v>
       </c>
       <c r="H19" t="n">
         <v>1.664853842702734</v>
       </c>
       <c r="I19" t="n">
-        <v>5.631223427055869</v>
+        <v>5.63122342705587</v>
       </c>
       <c r="J19" t="n">
         <v>13.23882242811774</v>
@@ -32406,7 +32406,7 @@
         <v>28.65489236627312</v>
       </c>
       <c r="O19" t="n">
-        <v>26.46743102897964</v>
+        <v>26.46743102897965</v>
       </c>
       <c r="P19" t="n">
         <v>22.6474596352936</v>
@@ -32415,16 +32415,16 @@
         <v>15.67992714226469</v>
       </c>
       <c r="R19" t="n">
-        <v>8.419598267901545</v>
+        <v>8.419598267901547</v>
       </c>
       <c r="S19" t="n">
         <v>3.263317808242471</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8000831350411901</v>
+        <v>0.8000831350411902</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01021382725584499</v>
+        <v>0.010213827255845</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,22 +32461,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4174495561852888</v>
+        <v>0.4174495561852889</v>
       </c>
       <c r="H20" t="n">
         <v>4.27520526728259</v>
       </c>
       <c r="I20" t="n">
-        <v>16.09372401483336</v>
+        <v>16.09372401483337</v>
       </c>
       <c r="J20" t="n">
-        <v>35.43050926928119</v>
+        <v>35.4305092692812</v>
       </c>
       <c r="K20" t="n">
-        <v>53.10114898260448</v>
+        <v>53.10114898260449</v>
       </c>
       <c r="L20" t="n">
-        <v>65.87667083771002</v>
+        <v>65.87667083771004</v>
       </c>
       <c r="M20" t="n">
         <v>73.30048938252015</v>
@@ -32485,25 +32485,25 @@
         <v>74.48656793403161</v>
       </c>
       <c r="O20" t="n">
-        <v>70.33555390971414</v>
+        <v>70.33555390971415</v>
       </c>
       <c r="P20" t="n">
-        <v>60.02976799138981</v>
+        <v>60.02976799138982</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.07985576050414</v>
+        <v>45.07985576050415</v>
       </c>
       <c r="R20" t="n">
-        <v>26.22261568372417</v>
+        <v>26.22261568372418</v>
       </c>
       <c r="S20" t="n">
-        <v>9.512631761572278</v>
+        <v>9.51263176157228</v>
       </c>
       <c r="T20" t="n">
         <v>1.827385432201103</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0333959644948231</v>
+        <v>0.03339596449482311</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,28 +32546,28 @@
         <v>2.15714104506228</v>
       </c>
       <c r="I21" t="n">
-        <v>7.690080473995867</v>
+        <v>7.690080473995868</v>
       </c>
       <c r="J21" t="n">
-        <v>21.10216859749617</v>
+        <v>21.10216859749618</v>
       </c>
       <c r="K21" t="n">
         <v>36.06696723708355</v>
       </c>
       <c r="L21" t="n">
-        <v>48.49648839046693</v>
+        <v>48.49648839046694</v>
       </c>
       <c r="M21" t="n">
-        <v>56.59311452009441</v>
+        <v>56.59311452009442</v>
       </c>
       <c r="N21" t="n">
-        <v>58.09096586337336</v>
+        <v>58.09096586337337</v>
       </c>
       <c r="O21" t="n">
-        <v>53.14188477361194</v>
+        <v>53.14188477361195</v>
       </c>
       <c r="P21" t="n">
-        <v>42.65104760214421</v>
+        <v>42.65104760214422</v>
       </c>
       <c r="Q21" t="n">
         <v>28.51109581085041</v>
@@ -32576,10 +32576,10 @@
         <v>13.86761518342491</v>
       </c>
       <c r="S21" t="n">
-        <v>4.148724943614328</v>
+        <v>4.148724943614329</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9002782109047386</v>
+        <v>0.9002782109047388</v>
       </c>
       <c r="U21" t="n">
         <v>0.0146944212878902</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1872534996904913</v>
+        <v>0.1872534996904914</v>
       </c>
       <c r="H22" t="n">
         <v>1.664853842702734</v>
       </c>
       <c r="I22" t="n">
-        <v>5.631223427055869</v>
+        <v>5.63122342705587</v>
       </c>
       <c r="J22" t="n">
         <v>13.23882242811774</v>
@@ -32643,7 +32643,7 @@
         <v>28.65489236627312</v>
       </c>
       <c r="O22" t="n">
-        <v>26.46743102897964</v>
+        <v>26.46743102897965</v>
       </c>
       <c r="P22" t="n">
         <v>22.6474596352936</v>
@@ -32652,16 +32652,16 @@
         <v>15.67992714226469</v>
       </c>
       <c r="R22" t="n">
-        <v>8.419598267901545</v>
+        <v>8.419598267901547</v>
       </c>
       <c r="S22" t="n">
         <v>3.263317808242471</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8000831350411901</v>
+        <v>0.8000831350411902</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01021382725584499</v>
+        <v>0.010213827255845</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,22 +32698,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4174495561852888</v>
+        <v>0.4174495561852889</v>
       </c>
       <c r="H23" t="n">
         <v>4.27520526728259</v>
       </c>
       <c r="I23" t="n">
-        <v>16.09372401483336</v>
+        <v>16.09372401483337</v>
       </c>
       <c r="J23" t="n">
-        <v>35.43050926928119</v>
+        <v>35.4305092692812</v>
       </c>
       <c r="K23" t="n">
-        <v>53.10114898260448</v>
+        <v>53.10114898260449</v>
       </c>
       <c r="L23" t="n">
-        <v>65.87667083771002</v>
+        <v>65.87667083771004</v>
       </c>
       <c r="M23" t="n">
         <v>73.30048938252015</v>
@@ -32722,25 +32722,25 @@
         <v>74.48656793403161</v>
       </c>
       <c r="O23" t="n">
-        <v>70.33555390971414</v>
+        <v>70.33555390971415</v>
       </c>
       <c r="P23" t="n">
-        <v>60.02976799138981</v>
+        <v>60.02976799138982</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.07985576050414</v>
+        <v>45.07985576050415</v>
       </c>
       <c r="R23" t="n">
-        <v>26.22261568372417</v>
+        <v>26.22261568372418</v>
       </c>
       <c r="S23" t="n">
-        <v>9.512631761572278</v>
+        <v>9.51263176157228</v>
       </c>
       <c r="T23" t="n">
         <v>1.827385432201103</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0333959644948231</v>
+        <v>0.03339596449482311</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,28 +32783,28 @@
         <v>2.15714104506228</v>
       </c>
       <c r="I24" t="n">
-        <v>7.690080473995867</v>
+        <v>7.690080473995868</v>
       </c>
       <c r="J24" t="n">
-        <v>21.10216859749617</v>
+        <v>21.10216859749618</v>
       </c>
       <c r="K24" t="n">
         <v>36.06696723708355</v>
       </c>
       <c r="L24" t="n">
-        <v>48.49648839046693</v>
+        <v>48.49648839046694</v>
       </c>
       <c r="M24" t="n">
-        <v>56.59311452009441</v>
+        <v>56.59311452009442</v>
       </c>
       <c r="N24" t="n">
-        <v>58.09096586337336</v>
+        <v>58.09096586337337</v>
       </c>
       <c r="O24" t="n">
-        <v>53.14188477361194</v>
+        <v>53.14188477361195</v>
       </c>
       <c r="P24" t="n">
-        <v>42.65104760214421</v>
+        <v>42.65104760214422</v>
       </c>
       <c r="Q24" t="n">
         <v>28.51109581085041</v>
@@ -32813,10 +32813,10 @@
         <v>13.86761518342491</v>
       </c>
       <c r="S24" t="n">
-        <v>4.148724943614328</v>
+        <v>4.148724943614329</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9002782109047386</v>
+        <v>0.9002782109047388</v>
       </c>
       <c r="U24" t="n">
         <v>0.0146944212878902</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1872534996904913</v>
+        <v>0.1872534996904914</v>
       </c>
       <c r="H25" t="n">
         <v>1.664853842702734</v>
       </c>
       <c r="I25" t="n">
-        <v>5.631223427055869</v>
+        <v>5.63122342705587</v>
       </c>
       <c r="J25" t="n">
         <v>13.23882242811774</v>
@@ -32880,7 +32880,7 @@
         <v>28.65489236627312</v>
       </c>
       <c r="O25" t="n">
-        <v>26.46743102897964</v>
+        <v>26.46743102897965</v>
       </c>
       <c r="P25" t="n">
         <v>22.6474596352936</v>
@@ -32889,16 +32889,16 @@
         <v>15.67992714226469</v>
       </c>
       <c r="R25" t="n">
-        <v>8.419598267901545</v>
+        <v>8.419598267901547</v>
       </c>
       <c r="S25" t="n">
         <v>3.263317808242471</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8000831350411901</v>
+        <v>0.8000831350411902</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01021382725584499</v>
+        <v>0.010213827255845</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,22 +32935,22 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4174495561852888</v>
+        <v>0.4174495561852889</v>
       </c>
       <c r="H26" t="n">
         <v>4.27520526728259</v>
       </c>
       <c r="I26" t="n">
-        <v>16.09372401483336</v>
+        <v>16.09372401483337</v>
       </c>
       <c r="J26" t="n">
-        <v>35.43050926928119</v>
+        <v>35.4305092692812</v>
       </c>
       <c r="K26" t="n">
-        <v>53.10114898260448</v>
+        <v>53.10114898260449</v>
       </c>
       <c r="L26" t="n">
-        <v>65.87667083771002</v>
+        <v>65.87667083771004</v>
       </c>
       <c r="M26" t="n">
         <v>73.30048938252015</v>
@@ -32959,25 +32959,25 @@
         <v>74.48656793403161</v>
       </c>
       <c r="O26" t="n">
-        <v>70.33555390971414</v>
+        <v>70.33555390971415</v>
       </c>
       <c r="P26" t="n">
-        <v>60.02976799138981</v>
+        <v>60.02976799138982</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.07985576050414</v>
+        <v>45.07985576050415</v>
       </c>
       <c r="R26" t="n">
-        <v>26.22261568372417</v>
+        <v>26.22261568372418</v>
       </c>
       <c r="S26" t="n">
-        <v>9.512631761572278</v>
+        <v>9.51263176157228</v>
       </c>
       <c r="T26" t="n">
         <v>1.827385432201103</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0333959644948231</v>
+        <v>0.03339596449482311</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,28 +33020,28 @@
         <v>2.15714104506228</v>
       </c>
       <c r="I27" t="n">
-        <v>7.690080473995867</v>
+        <v>7.690080473995868</v>
       </c>
       <c r="J27" t="n">
-        <v>21.10216859749617</v>
+        <v>21.10216859749618</v>
       </c>
       <c r="K27" t="n">
         <v>36.06696723708355</v>
       </c>
       <c r="L27" t="n">
-        <v>48.49648839046693</v>
+        <v>48.49648839046694</v>
       </c>
       <c r="M27" t="n">
-        <v>56.59311452009441</v>
+        <v>56.59311452009442</v>
       </c>
       <c r="N27" t="n">
-        <v>58.09096586337336</v>
+        <v>58.09096586337337</v>
       </c>
       <c r="O27" t="n">
-        <v>53.14188477361194</v>
+        <v>53.14188477361195</v>
       </c>
       <c r="P27" t="n">
-        <v>42.65104760214421</v>
+        <v>42.65104760214422</v>
       </c>
       <c r="Q27" t="n">
         <v>28.51109581085041</v>
@@ -33050,10 +33050,10 @@
         <v>13.86761518342491</v>
       </c>
       <c r="S27" t="n">
-        <v>4.148724943614328</v>
+        <v>4.148724943614329</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9002782109047386</v>
+        <v>0.9002782109047388</v>
       </c>
       <c r="U27" t="n">
         <v>0.0146944212878902</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1872534996904913</v>
+        <v>0.1872534996904914</v>
       </c>
       <c r="H28" t="n">
         <v>1.664853842702734</v>
       </c>
       <c r="I28" t="n">
-        <v>5.631223427055869</v>
+        <v>5.63122342705587</v>
       </c>
       <c r="J28" t="n">
         <v>13.23882242811774</v>
@@ -33117,7 +33117,7 @@
         <v>28.65489236627312</v>
       </c>
       <c r="O28" t="n">
-        <v>26.46743102897964</v>
+        <v>26.46743102897965</v>
       </c>
       <c r="P28" t="n">
         <v>22.6474596352936</v>
@@ -33126,16 +33126,16 @@
         <v>15.67992714226469</v>
       </c>
       <c r="R28" t="n">
-        <v>8.419598267901545</v>
+        <v>8.419598267901547</v>
       </c>
       <c r="S28" t="n">
         <v>3.263317808242471</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8000831350411901</v>
+        <v>0.8000831350411902</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01021382725584499</v>
+        <v>0.010213827255845</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,22 +33172,22 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4174495561852888</v>
+        <v>0.4174495561852889</v>
       </c>
       <c r="H29" t="n">
         <v>4.27520526728259</v>
       </c>
       <c r="I29" t="n">
-        <v>16.09372401483336</v>
+        <v>16.09372401483337</v>
       </c>
       <c r="J29" t="n">
-        <v>35.43050926928119</v>
+        <v>35.4305092692812</v>
       </c>
       <c r="K29" t="n">
-        <v>53.10114898260448</v>
+        <v>53.10114898260449</v>
       </c>
       <c r="L29" t="n">
-        <v>65.87667083771002</v>
+        <v>65.87667083771004</v>
       </c>
       <c r="M29" t="n">
         <v>73.30048938252015</v>
@@ -33196,25 +33196,25 @@
         <v>74.48656793403161</v>
       </c>
       <c r="O29" t="n">
-        <v>70.33555390971414</v>
+        <v>70.33555390971415</v>
       </c>
       <c r="P29" t="n">
-        <v>60.02976799138981</v>
+        <v>60.02976799138982</v>
       </c>
       <c r="Q29" t="n">
-        <v>45.07985576050414</v>
+        <v>45.07985576050415</v>
       </c>
       <c r="R29" t="n">
-        <v>26.22261568372417</v>
+        <v>26.22261568372418</v>
       </c>
       <c r="S29" t="n">
-        <v>9.512631761572278</v>
+        <v>9.51263176157228</v>
       </c>
       <c r="T29" t="n">
         <v>1.827385432201103</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0333959644948231</v>
+        <v>0.03339596449482311</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,28 +33257,28 @@
         <v>2.15714104506228</v>
       </c>
       <c r="I30" t="n">
-        <v>7.690080473995867</v>
+        <v>7.690080473995868</v>
       </c>
       <c r="J30" t="n">
-        <v>21.10216859749617</v>
+        <v>21.10216859749618</v>
       </c>
       <c r="K30" t="n">
         <v>36.06696723708355</v>
       </c>
       <c r="L30" t="n">
-        <v>48.49648839046693</v>
+        <v>48.49648839046694</v>
       </c>
       <c r="M30" t="n">
-        <v>56.59311452009441</v>
+        <v>56.59311452009442</v>
       </c>
       <c r="N30" t="n">
-        <v>58.09096586337336</v>
+        <v>58.09096586337337</v>
       </c>
       <c r="O30" t="n">
-        <v>53.14188477361194</v>
+        <v>53.14188477361195</v>
       </c>
       <c r="P30" t="n">
-        <v>42.65104760214421</v>
+        <v>42.65104760214422</v>
       </c>
       <c r="Q30" t="n">
         <v>28.51109581085041</v>
@@ -33287,10 +33287,10 @@
         <v>13.86761518342491</v>
       </c>
       <c r="S30" t="n">
-        <v>4.148724943614328</v>
+        <v>4.148724943614329</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9002782109047386</v>
+        <v>0.9002782109047388</v>
       </c>
       <c r="U30" t="n">
         <v>0.0146944212878902</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1872534996904913</v>
+        <v>0.1872534996904914</v>
       </c>
       <c r="H31" t="n">
         <v>1.664853842702734</v>
       </c>
       <c r="I31" t="n">
-        <v>5.631223427055869</v>
+        <v>5.63122342705587</v>
       </c>
       <c r="J31" t="n">
         <v>13.23882242811774</v>
@@ -33354,7 +33354,7 @@
         <v>28.65489236627312</v>
       </c>
       <c r="O31" t="n">
-        <v>26.46743102897964</v>
+        <v>26.46743102897965</v>
       </c>
       <c r="P31" t="n">
         <v>22.6474596352936</v>
@@ -33363,16 +33363,16 @@
         <v>15.67992714226469</v>
       </c>
       <c r="R31" t="n">
-        <v>8.419598267901545</v>
+        <v>8.419598267901547</v>
       </c>
       <c r="S31" t="n">
         <v>3.263317808242471</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8000831350411901</v>
+        <v>0.8000831350411902</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01021382725584499</v>
+        <v>0.010213827255845</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4174495561852888</v>
+        <v>0.4174495561852891</v>
       </c>
       <c r="H32" t="n">
-        <v>4.27520526728259</v>
+        <v>4.275205267282592</v>
       </c>
       <c r="I32" t="n">
-        <v>16.09372401483336</v>
+        <v>16.09372401483337</v>
       </c>
       <c r="J32" t="n">
-        <v>35.43050926928119</v>
+        <v>35.43050926928121</v>
       </c>
       <c r="K32" t="n">
-        <v>53.10114898260448</v>
+        <v>53.10114898260451</v>
       </c>
       <c r="L32" t="n">
-        <v>65.87667083771002</v>
+        <v>65.87667083771005</v>
       </c>
       <c r="M32" t="n">
-        <v>73.30048938252015</v>
+        <v>73.30048938252018</v>
       </c>
       <c r="N32" t="n">
-        <v>74.48656793403161</v>
+        <v>74.48656793403165</v>
       </c>
       <c r="O32" t="n">
-        <v>70.33555390971414</v>
+        <v>70.33555390971418</v>
       </c>
       <c r="P32" t="n">
-        <v>60.02976799138981</v>
+        <v>60.02976799138985</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.07985576050414</v>
+        <v>45.07985576050417</v>
       </c>
       <c r="R32" t="n">
-        <v>26.22261568372417</v>
+        <v>26.22261568372419</v>
       </c>
       <c r="S32" t="n">
-        <v>9.512631761572278</v>
+        <v>9.512631761572283</v>
       </c>
       <c r="T32" t="n">
-        <v>1.827385432201103</v>
+        <v>1.827385432201104</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0333959644948231</v>
+        <v>0.03339596449482312</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2233552035759309</v>
+        <v>0.223355203575931</v>
       </c>
       <c r="H33" t="n">
-        <v>2.15714104506228</v>
+        <v>2.157141045062281</v>
       </c>
       <c r="I33" t="n">
-        <v>7.690080473995867</v>
+        <v>7.690080473995871</v>
       </c>
       <c r="J33" t="n">
-        <v>21.10216859749617</v>
+        <v>21.10216859749619</v>
       </c>
       <c r="K33" t="n">
-        <v>36.06696723708355</v>
+        <v>36.06696723708356</v>
       </c>
       <c r="L33" t="n">
-        <v>48.49648839046693</v>
+        <v>48.49648839046696</v>
       </c>
       <c r="M33" t="n">
-        <v>56.59311452009441</v>
+        <v>56.59311452009444</v>
       </c>
       <c r="N33" t="n">
-        <v>58.09096586337336</v>
+        <v>58.09096586337339</v>
       </c>
       <c r="O33" t="n">
-        <v>53.14188477361194</v>
+        <v>53.14188477361197</v>
       </c>
       <c r="P33" t="n">
-        <v>42.65104760214421</v>
+        <v>42.65104760214423</v>
       </c>
       <c r="Q33" t="n">
-        <v>28.51109581085041</v>
+        <v>28.51109581085042</v>
       </c>
       <c r="R33" t="n">
-        <v>13.86761518342491</v>
+        <v>13.86761518342492</v>
       </c>
       <c r="S33" t="n">
-        <v>4.148724943614328</v>
+        <v>4.148724943614329</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9002782109047386</v>
+        <v>0.9002782109047391</v>
       </c>
       <c r="U33" t="n">
         <v>0.0146944212878902</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1872534996904913</v>
+        <v>0.1872534996904915</v>
       </c>
       <c r="H34" t="n">
         <v>1.664853842702734</v>
       </c>
       <c r="I34" t="n">
-        <v>5.631223427055869</v>
+        <v>5.631223427055872</v>
       </c>
       <c r="J34" t="n">
         <v>13.23882242811774</v>
       </c>
       <c r="K34" t="n">
-        <v>21.75545205494981</v>
+        <v>21.75545205494982</v>
       </c>
       <c r="L34" t="n">
-        <v>27.83948849034815</v>
+        <v>27.83948849034816</v>
       </c>
       <c r="M34" t="n">
-        <v>29.35283722875584</v>
+        <v>29.35283722875585</v>
       </c>
       <c r="N34" t="n">
-        <v>28.65489236627312</v>
+        <v>28.65489236627313</v>
       </c>
       <c r="O34" t="n">
-        <v>26.46743102897964</v>
+        <v>26.46743102897966</v>
       </c>
       <c r="P34" t="n">
-        <v>22.6474596352936</v>
+        <v>22.64745963529361</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.67992714226469</v>
+        <v>15.6799271422647</v>
       </c>
       <c r="R34" t="n">
-        <v>8.419598267901545</v>
+        <v>8.41959826790155</v>
       </c>
       <c r="S34" t="n">
-        <v>3.263317808242471</v>
+        <v>3.263317808242473</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8000831350411901</v>
+        <v>0.8000831350411906</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01021382725584499</v>
+        <v>0.010213827255845</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4174495561852888</v>
+        <v>0.4174495561852891</v>
       </c>
       <c r="H35" t="n">
-        <v>4.27520526728259</v>
+        <v>4.275205267282592</v>
       </c>
       <c r="I35" t="n">
-        <v>16.09372401483336</v>
+        <v>16.09372401483337</v>
       </c>
       <c r="J35" t="n">
-        <v>35.43050926928119</v>
+        <v>35.43050926928121</v>
       </c>
       <c r="K35" t="n">
-        <v>53.10114898260448</v>
+        <v>53.10114898260451</v>
       </c>
       <c r="L35" t="n">
-        <v>65.87667083771002</v>
+        <v>65.87667083771005</v>
       </c>
       <c r="M35" t="n">
-        <v>73.30048938252015</v>
+        <v>73.30048938252018</v>
       </c>
       <c r="N35" t="n">
-        <v>74.48656793403161</v>
+        <v>74.48656793403165</v>
       </c>
       <c r="O35" t="n">
-        <v>70.33555390971414</v>
+        <v>70.33555390971418</v>
       </c>
       <c r="P35" t="n">
-        <v>60.02976799138981</v>
+        <v>60.02976799138985</v>
       </c>
       <c r="Q35" t="n">
-        <v>45.07985576050414</v>
+        <v>45.07985576050417</v>
       </c>
       <c r="R35" t="n">
-        <v>26.22261568372417</v>
+        <v>26.22261568372419</v>
       </c>
       <c r="S35" t="n">
-        <v>9.512631761572278</v>
+        <v>9.512631761572283</v>
       </c>
       <c r="T35" t="n">
-        <v>1.827385432201103</v>
+        <v>1.827385432201104</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0333959644948231</v>
+        <v>0.03339596449482312</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2233552035759309</v>
+        <v>0.223355203575931</v>
       </c>
       <c r="H36" t="n">
-        <v>2.15714104506228</v>
+        <v>2.157141045062281</v>
       </c>
       <c r="I36" t="n">
-        <v>7.690080473995867</v>
+        <v>7.690080473995871</v>
       </c>
       <c r="J36" t="n">
-        <v>21.10216859749617</v>
+        <v>21.10216859749619</v>
       </c>
       <c r="K36" t="n">
-        <v>36.06696723708355</v>
+        <v>36.06696723708356</v>
       </c>
       <c r="L36" t="n">
-        <v>48.49648839046693</v>
+        <v>48.49648839046696</v>
       </c>
       <c r="M36" t="n">
-        <v>56.59311452009441</v>
+        <v>56.59311452009444</v>
       </c>
       <c r="N36" t="n">
-        <v>58.09096586337336</v>
+        <v>58.09096586337339</v>
       </c>
       <c r="O36" t="n">
-        <v>53.14188477361194</v>
+        <v>53.14188477361197</v>
       </c>
       <c r="P36" t="n">
-        <v>42.65104760214421</v>
+        <v>42.65104760214423</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.51109581085041</v>
+        <v>28.51109581085042</v>
       </c>
       <c r="R36" t="n">
-        <v>13.86761518342491</v>
+        <v>13.86761518342492</v>
       </c>
       <c r="S36" t="n">
-        <v>4.148724943614328</v>
+        <v>4.148724943614329</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9002782109047386</v>
+        <v>0.9002782109047391</v>
       </c>
       <c r="U36" t="n">
         <v>0.0146944212878902</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1872534996904913</v>
+        <v>0.1872534996904915</v>
       </c>
       <c r="H37" t="n">
         <v>1.664853842702734</v>
       </c>
       <c r="I37" t="n">
-        <v>5.631223427055869</v>
+        <v>5.631223427055872</v>
       </c>
       <c r="J37" t="n">
         <v>13.23882242811774</v>
       </c>
       <c r="K37" t="n">
-        <v>21.75545205494981</v>
+        <v>21.75545205494982</v>
       </c>
       <c r="L37" t="n">
-        <v>27.83948849034815</v>
+        <v>27.83948849034816</v>
       </c>
       <c r="M37" t="n">
-        <v>29.35283722875584</v>
+        <v>29.35283722875585</v>
       </c>
       <c r="N37" t="n">
-        <v>28.65489236627312</v>
+        <v>28.65489236627313</v>
       </c>
       <c r="O37" t="n">
-        <v>26.46743102897964</v>
+        <v>26.46743102897966</v>
       </c>
       <c r="P37" t="n">
-        <v>22.6474596352936</v>
+        <v>22.64745963529361</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.67992714226469</v>
+        <v>15.6799271422647</v>
       </c>
       <c r="R37" t="n">
-        <v>8.419598267901545</v>
+        <v>8.41959826790155</v>
       </c>
       <c r="S37" t="n">
-        <v>3.263317808242471</v>
+        <v>3.263317808242473</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8000831350411901</v>
+        <v>0.8000831350411906</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01021382725584499</v>
+        <v>0.010213827255845</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4174495561852888</v>
+        <v>0.4174495561852891</v>
       </c>
       <c r="H38" t="n">
-        <v>4.27520526728259</v>
+        <v>4.275205267282592</v>
       </c>
       <c r="I38" t="n">
-        <v>16.09372401483336</v>
+        <v>16.09372401483337</v>
       </c>
       <c r="J38" t="n">
-        <v>35.43050926928119</v>
+        <v>35.43050926928121</v>
       </c>
       <c r="K38" t="n">
-        <v>53.10114898260448</v>
+        <v>53.10114898260451</v>
       </c>
       <c r="L38" t="n">
-        <v>65.87667083771002</v>
+        <v>65.87667083771005</v>
       </c>
       <c r="M38" t="n">
-        <v>73.30048938252015</v>
+        <v>73.30048938252018</v>
       </c>
       <c r="N38" t="n">
-        <v>74.48656793403161</v>
+        <v>74.48656793403165</v>
       </c>
       <c r="O38" t="n">
-        <v>70.33555390971414</v>
+        <v>70.33555390971418</v>
       </c>
       <c r="P38" t="n">
-        <v>60.02976799138981</v>
+        <v>60.02976799138985</v>
       </c>
       <c r="Q38" t="n">
-        <v>45.07985576050414</v>
+        <v>45.07985576050417</v>
       </c>
       <c r="R38" t="n">
-        <v>26.22261568372417</v>
+        <v>26.22261568372419</v>
       </c>
       <c r="S38" t="n">
-        <v>9.512631761572278</v>
+        <v>9.512631761572283</v>
       </c>
       <c r="T38" t="n">
-        <v>1.827385432201103</v>
+        <v>1.827385432201104</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0333959644948231</v>
+        <v>0.03339596449482312</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2233552035759309</v>
+        <v>0.223355203575931</v>
       </c>
       <c r="H39" t="n">
-        <v>2.15714104506228</v>
+        <v>2.157141045062281</v>
       </c>
       <c r="I39" t="n">
-        <v>7.690080473995867</v>
+        <v>7.690080473995871</v>
       </c>
       <c r="J39" t="n">
-        <v>21.10216859749617</v>
+        <v>21.10216859749619</v>
       </c>
       <c r="K39" t="n">
-        <v>36.06696723708355</v>
+        <v>36.06696723708356</v>
       </c>
       <c r="L39" t="n">
-        <v>48.49648839046693</v>
+        <v>48.49648839046696</v>
       </c>
       <c r="M39" t="n">
-        <v>56.59311452009441</v>
+        <v>56.59311452009444</v>
       </c>
       <c r="N39" t="n">
-        <v>58.09096586337336</v>
+        <v>58.09096586337339</v>
       </c>
       <c r="O39" t="n">
-        <v>53.14188477361194</v>
+        <v>53.14188477361197</v>
       </c>
       <c r="P39" t="n">
-        <v>42.65104760214421</v>
+        <v>42.65104760214423</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.51109581085041</v>
+        <v>28.51109581085042</v>
       </c>
       <c r="R39" t="n">
-        <v>13.86761518342491</v>
+        <v>13.86761518342492</v>
       </c>
       <c r="S39" t="n">
-        <v>4.148724943614328</v>
+        <v>4.148724943614329</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9002782109047386</v>
+        <v>0.9002782109047391</v>
       </c>
       <c r="U39" t="n">
         <v>0.0146944212878902</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1872534996904913</v>
+        <v>0.1872534996904915</v>
       </c>
       <c r="H40" t="n">
         <v>1.664853842702734</v>
       </c>
       <c r="I40" t="n">
-        <v>5.631223427055869</v>
+        <v>5.631223427055872</v>
       </c>
       <c r="J40" t="n">
         <v>13.23882242811774</v>
       </c>
       <c r="K40" t="n">
-        <v>21.75545205494981</v>
+        <v>21.75545205494982</v>
       </c>
       <c r="L40" t="n">
-        <v>27.83948849034815</v>
+        <v>27.83948849034816</v>
       </c>
       <c r="M40" t="n">
-        <v>29.35283722875584</v>
+        <v>29.35283722875585</v>
       </c>
       <c r="N40" t="n">
-        <v>28.65489236627312</v>
+        <v>28.65489236627313</v>
       </c>
       <c r="O40" t="n">
-        <v>26.46743102897964</v>
+        <v>26.46743102897966</v>
       </c>
       <c r="P40" t="n">
-        <v>22.6474596352936</v>
+        <v>22.64745963529361</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.67992714226469</v>
+        <v>15.6799271422647</v>
       </c>
       <c r="R40" t="n">
-        <v>8.419598267901545</v>
+        <v>8.41959826790155</v>
       </c>
       <c r="S40" t="n">
-        <v>3.263317808242471</v>
+        <v>3.263317808242473</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8000831350411901</v>
+        <v>0.8000831350411906</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01021382725584499</v>
+        <v>0.010213827255845</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4174495561852888</v>
+        <v>0.4174495561852891</v>
       </c>
       <c r="H41" t="n">
-        <v>4.27520526728259</v>
+        <v>4.275205267282592</v>
       </c>
       <c r="I41" t="n">
-        <v>16.09372401483336</v>
+        <v>16.09372401483337</v>
       </c>
       <c r="J41" t="n">
-        <v>35.43050926928119</v>
+        <v>35.43050926928121</v>
       </c>
       <c r="K41" t="n">
-        <v>53.10114898260448</v>
+        <v>53.10114898260451</v>
       </c>
       <c r="L41" t="n">
-        <v>65.87667083771002</v>
+        <v>65.87667083771005</v>
       </c>
       <c r="M41" t="n">
-        <v>73.30048938252015</v>
+        <v>73.30048938252018</v>
       </c>
       <c r="N41" t="n">
-        <v>74.48656793403161</v>
+        <v>74.48656793403165</v>
       </c>
       <c r="O41" t="n">
-        <v>70.33555390971414</v>
+        <v>70.33555390971418</v>
       </c>
       <c r="P41" t="n">
-        <v>60.02976799138981</v>
+        <v>60.02976799138985</v>
       </c>
       <c r="Q41" t="n">
-        <v>45.07985576050414</v>
+        <v>45.07985576050417</v>
       </c>
       <c r="R41" t="n">
-        <v>26.22261568372417</v>
+        <v>26.22261568372419</v>
       </c>
       <c r="S41" t="n">
-        <v>9.512631761572278</v>
+        <v>9.512631761572283</v>
       </c>
       <c r="T41" t="n">
-        <v>1.827385432201103</v>
+        <v>1.827385432201104</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0333959644948231</v>
+        <v>0.03339596449482312</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2233552035759309</v>
+        <v>0.223355203575931</v>
       </c>
       <c r="H42" t="n">
-        <v>2.15714104506228</v>
+        <v>2.157141045062281</v>
       </c>
       <c r="I42" t="n">
-        <v>7.690080473995867</v>
+        <v>7.690080473995871</v>
       </c>
       <c r="J42" t="n">
-        <v>21.10216859749617</v>
+        <v>21.10216859749619</v>
       </c>
       <c r="K42" t="n">
-        <v>36.06696723708355</v>
+        <v>36.06696723708356</v>
       </c>
       <c r="L42" t="n">
-        <v>48.49648839046693</v>
+        <v>48.49648839046696</v>
       </c>
       <c r="M42" t="n">
-        <v>56.59311452009441</v>
+        <v>56.59311452009444</v>
       </c>
       <c r="N42" t="n">
-        <v>58.09096586337336</v>
+        <v>58.09096586337339</v>
       </c>
       <c r="O42" t="n">
-        <v>53.14188477361194</v>
+        <v>53.14188477361197</v>
       </c>
       <c r="P42" t="n">
-        <v>42.65104760214421</v>
+        <v>42.65104760214423</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.51109581085041</v>
+        <v>28.51109581085042</v>
       </c>
       <c r="R42" t="n">
-        <v>13.86761518342491</v>
+        <v>13.86761518342492</v>
       </c>
       <c r="S42" t="n">
-        <v>4.148724943614328</v>
+        <v>4.148724943614329</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9002782109047386</v>
+        <v>0.9002782109047391</v>
       </c>
       <c r="U42" t="n">
         <v>0.0146944212878902</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1872534996904913</v>
+        <v>0.1872534996904915</v>
       </c>
       <c r="H43" t="n">
         <v>1.664853842702734</v>
       </c>
       <c r="I43" t="n">
-        <v>5.631223427055869</v>
+        <v>5.631223427055872</v>
       </c>
       <c r="J43" t="n">
         <v>13.23882242811774</v>
       </c>
       <c r="K43" t="n">
-        <v>21.75545205494981</v>
+        <v>21.75545205494982</v>
       </c>
       <c r="L43" t="n">
-        <v>27.83948849034815</v>
+        <v>27.83948849034816</v>
       </c>
       <c r="M43" t="n">
-        <v>29.35283722875584</v>
+        <v>29.35283722875585</v>
       </c>
       <c r="N43" t="n">
-        <v>28.65489236627312</v>
+        <v>28.65489236627313</v>
       </c>
       <c r="O43" t="n">
-        <v>26.46743102897964</v>
+        <v>26.46743102897966</v>
       </c>
       <c r="P43" t="n">
-        <v>22.6474596352936</v>
+        <v>22.64745963529361</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.67992714226469</v>
+        <v>15.6799271422647</v>
       </c>
       <c r="R43" t="n">
-        <v>8.419598267901545</v>
+        <v>8.41959826790155</v>
       </c>
       <c r="S43" t="n">
-        <v>3.263317808242471</v>
+        <v>3.263317808242473</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8000831350411901</v>
+        <v>0.8000831350411906</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01021382725584499</v>
+        <v>0.010213827255845</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4174495561852888</v>
+        <v>0.4174495561852892</v>
       </c>
       <c r="H44" t="n">
-        <v>4.27520526728259</v>
+        <v>4.275205267282594</v>
       </c>
       <c r="I44" t="n">
-        <v>16.09372401483336</v>
+        <v>16.09372401483338</v>
       </c>
       <c r="J44" t="n">
-        <v>35.43050926928119</v>
+        <v>35.43050926928122</v>
       </c>
       <c r="K44" t="n">
-        <v>53.10114898260448</v>
+        <v>53.10114898260452</v>
       </c>
       <c r="L44" t="n">
-        <v>65.87667083771002</v>
+        <v>65.87667083771008</v>
       </c>
       <c r="M44" t="n">
-        <v>73.30048938252015</v>
+        <v>73.30048938252021</v>
       </c>
       <c r="N44" t="n">
-        <v>74.48656793403161</v>
+        <v>74.48656793403167</v>
       </c>
       <c r="O44" t="n">
-        <v>70.33555390971414</v>
+        <v>70.33555390971419</v>
       </c>
       <c r="P44" t="n">
-        <v>60.02976799138981</v>
+        <v>60.02976799138986</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.07985576050414</v>
+        <v>45.07985576050417</v>
       </c>
       <c r="R44" t="n">
-        <v>26.22261568372417</v>
+        <v>26.22261568372419</v>
       </c>
       <c r="S44" t="n">
-        <v>9.512631761572278</v>
+        <v>9.512631761572287</v>
       </c>
       <c r="T44" t="n">
-        <v>1.827385432201103</v>
+        <v>1.827385432201104</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0333959644948231</v>
+        <v>0.03339596449482313</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2233552035759309</v>
+        <v>0.2233552035759311</v>
       </c>
       <c r="H45" t="n">
-        <v>2.15714104506228</v>
+        <v>2.157141045062282</v>
       </c>
       <c r="I45" t="n">
-        <v>7.690080473995867</v>
+        <v>7.690080473995874</v>
       </c>
       <c r="J45" t="n">
-        <v>21.10216859749617</v>
+        <v>21.10216859749619</v>
       </c>
       <c r="K45" t="n">
-        <v>36.06696723708355</v>
+        <v>36.06696723708357</v>
       </c>
       <c r="L45" t="n">
-        <v>48.49648839046693</v>
+        <v>48.49648839046696</v>
       </c>
       <c r="M45" t="n">
-        <v>56.59311452009441</v>
+        <v>56.59311452009445</v>
       </c>
       <c r="N45" t="n">
-        <v>58.09096586337336</v>
+        <v>58.09096586337341</v>
       </c>
       <c r="O45" t="n">
-        <v>53.14188477361194</v>
+        <v>53.14188477361198</v>
       </c>
       <c r="P45" t="n">
-        <v>42.65104760214421</v>
+        <v>42.65104760214425</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.51109581085041</v>
+        <v>28.51109581085043</v>
       </c>
       <c r="R45" t="n">
-        <v>13.86761518342491</v>
+        <v>13.86761518342492</v>
       </c>
       <c r="S45" t="n">
-        <v>4.148724943614328</v>
+        <v>4.148724943614331</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9002782109047386</v>
+        <v>0.9002782109047394</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0146944212878902</v>
+        <v>0.01469442128789021</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1872534996904913</v>
+        <v>0.1872534996904915</v>
       </c>
       <c r="H46" t="n">
-        <v>1.664853842702734</v>
+        <v>1.664853842702735</v>
       </c>
       <c r="I46" t="n">
-        <v>5.631223427055869</v>
+        <v>5.631223427055874</v>
       </c>
       <c r="J46" t="n">
-        <v>13.23882242811774</v>
+        <v>13.23882242811775</v>
       </c>
       <c r="K46" t="n">
-        <v>21.75545205494981</v>
+        <v>21.75545205494983</v>
       </c>
       <c r="L46" t="n">
-        <v>27.83948849034815</v>
+        <v>27.83948849034817</v>
       </c>
       <c r="M46" t="n">
-        <v>29.35283722875584</v>
+        <v>29.35283722875586</v>
       </c>
       <c r="N46" t="n">
-        <v>28.65489236627312</v>
+        <v>28.65489236627315</v>
       </c>
       <c r="O46" t="n">
-        <v>26.46743102897964</v>
+        <v>26.46743102897966</v>
       </c>
       <c r="P46" t="n">
-        <v>22.6474596352936</v>
+        <v>22.64745963529362</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.67992714226469</v>
+        <v>15.6799271422647</v>
       </c>
       <c r="R46" t="n">
-        <v>8.419598267901545</v>
+        <v>8.419598267901552</v>
       </c>
       <c r="S46" t="n">
-        <v>3.263317808242471</v>
+        <v>3.263317808242474</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8000831350411901</v>
+        <v>0.8000831350411908</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01021382725584499</v>
+        <v>0.010213827255845</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>41.05179111817306</v>
+        <v>118.5115880530824</v>
       </c>
       <c r="K11" t="n">
-        <v>122.0492982736047</v>
+        <v>117.7526880092825</v>
       </c>
       <c r="L11" t="n">
-        <v>122.0492982736047</v>
+        <v>48.88611160301747</v>
       </c>
       <c r="M11" t="n">
         <v>83.56285454860291</v>
@@ -35422,7 +35422,7 @@
         <v>78.00343736515642</v>
       </c>
       <c r="O11" t="n">
-        <v>36.37425343351531</v>
+        <v>36.37425343351532</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35431,7 +35431,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1749753030302656</v>
+        <v>0.1749753030302692</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35498,10 +35498,10 @@
         <v>122.0492982736047</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>116.6118913185634</v>
       </c>
       <c r="O12" t="n">
-        <v>116.6118913185636</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>85.56614463534061</v>
@@ -35541,25 +35541,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>16.76555500988655</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>27.9252947028823</v>
       </c>
       <c r="D13" t="n">
-        <v>49.19982542414394</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>36.00425759001082</v>
+        <v>55.455593456408</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>28.6008726231175</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -35571,10 +35571,10 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>13.65851246809547</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -35583,7 +35583,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>122.0492982736047</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>67.56853785797836</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>118.5115880530824</v>
       </c>
       <c r="K14" t="n">
-        <v>8.385474052611491</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>48.88611160301745</v>
+        <v>48.88611160301747</v>
       </c>
       <c r="M14" t="n">
         <v>83.56285454860291</v>
@@ -35659,16 +35659,16 @@
         <v>78.00343736515642</v>
       </c>
       <c r="O14" t="n">
-        <v>36.37425343351531</v>
+        <v>36.37425343351532</v>
       </c>
       <c r="P14" t="n">
-        <v>122.0492982736047</v>
+        <v>11.92318427313377</v>
       </c>
       <c r="Q14" t="n">
-        <v>105.8295037361486</v>
+        <v>105.8295037361487</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1749753030302656</v>
+        <v>0.1749753030302976</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.27388527251655</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>119.764688815662</v>
+        <v>31.55186885953259</v>
       </c>
       <c r="M15" t="n">
-        <v>116.6118913185634</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="O15" t="n">
         <v>122.0492982736047</v>
@@ -35778,25 +35778,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>16.76555500988658</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>27.92529470288233</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>49.19982542414397</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>52.70633446262968</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>55.45559345640802</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>25.6865140466002</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>28.60087262311753</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -35814,16 +35814,16 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>66.23882568770152</v>
+        <v>121.5659703672206</v>
       </c>
       <c r="O16" t="n">
-        <v>122.0492982736047</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>122.0492982736047</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.56853785797836</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>80.28369907349906</v>
+        <v>80.28369907349908</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>48.88611160301745</v>
+        <v>48.88611160301747</v>
       </c>
       <c r="M17" t="n">
         <v>83.56285454860291</v>
@@ -35896,25 +35896,25 @@
         <v>78.00343736515642</v>
       </c>
       <c r="O17" t="n">
-        <v>36.37425343351531</v>
+        <v>36.37425343351532</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>122.0492982736047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>34.10625401829139</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>85.42545174145594</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>70.73010055044004</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>39.27388527251655</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>119.764688815662</v>
       </c>
       <c r="M18" t="n">
-        <v>80.12873768029938</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="N18" t="n">
         <v>122.0492982736047</v>
       </c>
       <c r="O18" t="n">
-        <v>122.0492982736047</v>
+        <v>33.83647831747531</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>85.56614463534061</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>80.28369907349906</v>
+        <v>80.28369907349902</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>48.88611160301745</v>
+        <v>48.88611160301747</v>
       </c>
       <c r="M20" t="n">
         <v>83.56285454860291</v>
@@ -36133,22 +36133,22 @@
         <v>78.00343736515642</v>
       </c>
       <c r="O20" t="n">
-        <v>36.37425343351531</v>
+        <v>36.37425343351532</v>
       </c>
       <c r="P20" t="n">
-        <v>57.69467765053096</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>57.69467765053102</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>98.46087464136507</v>
+        <v>98.46087464136501</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -36206,16 +36206,16 @@
         <v>119.764688815662</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="N21" t="n">
-        <v>122.0492982736047</v>
+        <v>80.12873768029938</v>
       </c>
       <c r="O21" t="n">
         <v>122.0492982736047</v>
       </c>
       <c r="P21" t="n">
-        <v>80.12873768029938</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>48.88611160301745</v>
+        <v>48.88611160301747</v>
       </c>
       <c r="M23" t="n">
         <v>83.56285454860291</v>
@@ -36370,7 +36370,7 @@
         <v>78.00343736515642</v>
       </c>
       <c r="O23" t="n">
-        <v>80.74532156487948</v>
+        <v>36.37425343351532</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36382,13 +36382,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>93.60730859266529</v>
+        <v>67.24827617358949</v>
       </c>
       <c r="T23" t="n">
-        <v>98.46087464136507</v>
+        <v>98.46087464136501</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>70.73010055043999</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36440,10 +36440,10 @@
         <v>39.27388527251655</v>
       </c>
       <c r="L24" t="n">
-        <v>114.3272818606204</v>
+        <v>119.764688815662</v>
       </c>
       <c r="M24" t="n">
-        <v>122.0492982736045</v>
+        <v>116.611891318563</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.046269626368</v>
+        <v>137.0462696263677</v>
       </c>
       <c r="K26" t="n">
         <v>207.5549153019833</v>
@@ -36601,22 +36601,22 @@
         <v>261.8032688511578</v>
       </c>
       <c r="M26" t="n">
-        <v>296.4800117967432</v>
+        <v>296.4800117967433</v>
       </c>
       <c r="N26" t="n">
-        <v>290.9205946132967</v>
+        <v>290.9205946132968</v>
       </c>
       <c r="O26" t="n">
-        <v>249.2914106816556</v>
+        <v>249.2914106816557</v>
       </c>
       <c r="P26" t="n">
-        <v>199.3682333132221</v>
+        <v>199.368233313222</v>
       </c>
       <c r="Q26" t="n">
         <v>124.3641853094343</v>
       </c>
       <c r="R26" t="n">
-        <v>18.70965687631593</v>
+        <v>18.70965687631596</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36756,22 +36756,22 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>150.4152974696853</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>188.4547983301388</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>48.06371857081029</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.10321943126402</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36984,16 +36984,16 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>48.20893820521677</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>93.01784989731954</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>95.29172879841305</v>
       </c>
       <c r="L31" t="n">
-        <v>181.480947274305</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -37005,7 +37005,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>55.03756962664436</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0462696263679</v>
+        <v>137.046269626368</v>
       </c>
       <c r="K32" t="n">
         <v>207.5549153019832</v>
@@ -37078,19 +37078,19 @@
         <v>296.4800117967432</v>
       </c>
       <c r="N32" t="n">
-        <v>290.9205946132967</v>
+        <v>290.9205946132973</v>
       </c>
       <c r="O32" t="n">
-        <v>249.2914106816555</v>
+        <v>249.2914106816556</v>
       </c>
       <c r="P32" t="n">
-        <v>199.368233313223</v>
+        <v>199.368233313222</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.3641853094342</v>
+        <v>124.3641853094343</v>
       </c>
       <c r="R32" t="n">
-        <v>18.70965687631585</v>
+        <v>18.70965687631589</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>39.27388527251655</v>
+        <v>39.27388527251657</v>
       </c>
       <c r="L33" t="n">
         <v>119.764688815662</v>
       </c>
       <c r="M33" t="n">
-        <v>184.966474445232</v>
+        <v>184.9664744452321</v>
       </c>
       <c r="N33" t="n">
         <v>208.4679356963294</v>
@@ -37163,7 +37163,7 @@
         <v>134.3972494427105</v>
       </c>
       <c r="P33" t="n">
-        <v>85.56614463534061</v>
+        <v>85.56614463534062</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37200,19 +37200,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.30023658317214</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>46.45997627616788</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>67.73450699742952</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>71.24101603591524</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>6.079161494400147</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37242,13 +37242,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>140.7116779558207</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.10321943126398</v>
       </c>
       <c r="R34" t="n">
-        <v>9.703619513865004</v>
+        <v>9.703619513865037</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7.497149376212271</v>
+        <v>7.497149376212278</v>
       </c>
       <c r="J35" t="n">
         <v>172.2223462900929</v>
       </c>
       <c r="K35" t="n">
-        <v>119.6189382615056</v>
+        <v>242.7309919657082</v>
       </c>
       <c r="L35" t="n">
-        <v>48.88611160301745</v>
+        <v>187.4162157455981</v>
       </c>
       <c r="M35" t="n">
-        <v>83.56285454860291</v>
+        <v>83.56285454860294</v>
       </c>
       <c r="N35" t="n">
-        <v>326.0966712770216</v>
+        <v>78.00343736515646</v>
       </c>
       <c r="O35" t="n">
-        <v>284.4674873453805</v>
+        <v>36.37425343351535</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>234.544309976947</v>
       </c>
       <c r="Q35" t="n">
         <v>159.5402619731592</v>
       </c>
       <c r="R35" t="n">
-        <v>53.88573354004083</v>
+        <v>53.88573354004085</v>
       </c>
       <c r="S35" t="n">
         <v>20.82075889537849</v>
@@ -37385,13 +37385,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>39.27388527251655</v>
+        <v>39.27388527251657</v>
       </c>
       <c r="L36" t="n">
         <v>119.764688815662</v>
       </c>
       <c r="M36" t="n">
-        <v>184.966474445232</v>
+        <v>184.9664744452321</v>
       </c>
       <c r="N36" t="n">
         <v>208.4679356963294</v>
@@ -37400,7 +37400,7 @@
         <v>134.3972494427105</v>
       </c>
       <c r="P36" t="n">
-        <v>85.56614463534061</v>
+        <v>85.56614463534062</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37443,7 +37443,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>84.46131383592925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -37479,7 +37479,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>84.46131383592925</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>7.497149376212271</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>172.2223462900929</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>296.9793455148827</v>
+        <v>48.88611160301748</v>
       </c>
       <c r="M38" t="n">
-        <v>83.56285454860291</v>
+        <v>328.8902835902921</v>
       </c>
       <c r="N38" t="n">
         <v>326.0966712770216</v>
       </c>
       <c r="O38" t="n">
-        <v>36.37425343351531</v>
+        <v>103.9341822545551</v>
       </c>
       <c r="P38" t="n">
-        <v>234.5443099769469</v>
+        <v>234.544309976947</v>
       </c>
       <c r="Q38" t="n">
-        <v>44.61489025771776</v>
+        <v>159.5402619731592</v>
       </c>
       <c r="R38" t="n">
-        <v>53.88573354004083</v>
+        <v>53.88573354004085</v>
       </c>
       <c r="S38" t="n">
         <v>20.82075889537849</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>39.27388527251655</v>
+        <v>39.27388527251657</v>
       </c>
       <c r="L39" t="n">
         <v>119.764688815662</v>
       </c>
       <c r="M39" t="n">
-        <v>184.966474445232</v>
+        <v>184.9664744452321</v>
       </c>
       <c r="N39" t="n">
         <v>208.4679356963294</v>
@@ -37637,7 +37637,7 @@
         <v>134.3972494427105</v>
       </c>
       <c r="P39" t="n">
-        <v>85.56614463534061</v>
+        <v>85.56614463534062</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37677,7 +37677,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>71.72224161763137</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -37689,10 +37689,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>79.39727228361073</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>5.064041552318509</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37725,7 +37725,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>12.73907221829787</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>164.7251969138806</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>235.2338425894959</v>
       </c>
       <c r="L41" t="n">
-        <v>93.22754679215558</v>
+        <v>48.88611160301748</v>
       </c>
       <c r="M41" t="n">
-        <v>83.56285454860291</v>
+        <v>324.1589390842558</v>
       </c>
       <c r="N41" t="n">
-        <v>318.5995219008093</v>
+        <v>78.00343736515646</v>
       </c>
       <c r="O41" t="n">
-        <v>276.9703379691682</v>
+        <v>86.0779305688102</v>
       </c>
       <c r="P41" t="n">
-        <v>227.0471606007346</v>
+        <v>227.0471606007347</v>
       </c>
       <c r="Q41" t="n">
         <v>152.0431125969469</v>
       </c>
       <c r="R41" t="n">
-        <v>46.38858416382854</v>
+        <v>46.38858416382855</v>
       </c>
       <c r="S41" t="n">
         <v>13.3236095191662</v>
@@ -37859,13 +37859,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>39.27388527251655</v>
+        <v>39.27388527251657</v>
       </c>
       <c r="L42" t="n">
         <v>119.764688815662</v>
       </c>
       <c r="M42" t="n">
-        <v>184.966474445232</v>
+        <v>184.9664744452321</v>
       </c>
       <c r="N42" t="n">
         <v>208.4679356963294</v>
@@ -37874,7 +37874,7 @@
         <v>134.3972494427105</v>
       </c>
       <c r="P42" t="n">
-        <v>85.56614463534061</v>
+        <v>85.56614463534062</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37929,7 +37929,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>74.81448148391578</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>104.3646190101172</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -37959,7 +37959,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>29.55013752620139</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>164.7251969138806</v>
+        <v>164.7251969138807</v>
       </c>
       <c r="K44" t="n">
         <v>235.2338425894959</v>
       </c>
       <c r="L44" t="n">
-        <v>48.88611160301745</v>
+        <v>237.0839774003409</v>
       </c>
       <c r="M44" t="n">
-        <v>133.2665316838984</v>
+        <v>83.56285454860297</v>
       </c>
       <c r="N44" t="n">
-        <v>318.5995219008093</v>
+        <v>318.5995219008094</v>
       </c>
       <c r="O44" t="n">
-        <v>36.37425343351531</v>
+        <v>276.9703379691683</v>
       </c>
       <c r="P44" t="n">
-        <v>227.0471606007346</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>152.0431125969469</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>46.38858416382854</v>
+        <v>46.38858416382856</v>
       </c>
       <c r="S44" t="n">
         <v>13.3236095191662</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.27388527251655</v>
+        <v>39.27388527251658</v>
       </c>
       <c r="L45" t="n">
         <v>119.764688815662</v>
       </c>
       <c r="M45" t="n">
-        <v>184.966474445232</v>
+        <v>184.9664744452321</v>
       </c>
       <c r="N45" t="n">
         <v>208.4679356963294</v>
@@ -38111,7 +38111,7 @@
         <v>134.3972494427105</v>
       </c>
       <c r="P45" t="n">
-        <v>85.56614463534061</v>
+        <v>85.56614463534063</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38148,7 +38148,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>32.46449610271872</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -38163,10 +38163,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>71.90012290739844</v>
       </c>
       <c r="H46" t="n">
-        <v>74.81448148391578</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>29.55013752620138</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
